--- a/results_Potential_NextBlock.xlsx
+++ b/results_Potential_NextBlock.xlsx
@@ -36,11 +36,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="000000FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
@@ -52,6 +47,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000000FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -123,16 +123,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -560,7 +560,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>←</t>
         </is>
       </c>
       <c r="E1" s="1" t="n">
@@ -568,36 +568,31 @@
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>←</t>
         </is>
       </c>
       <c r="G1" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
       <c r="I1" s="3" t="n">
         <v>4</v>
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>→</t>
         </is>
       </c>
       <c r="K1" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
       <c r="M1" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="N1" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
       <c r="O1" s="3" t="n">
         <v>7</v>
       </c>
@@ -620,12 +615,22 @@
       <c r="U1" s="6" t="n">
         <v>10</v>
       </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
       <c r="W1" s="6" t="n">
         <v>11</v>
       </c>
       <c r="Y1" s="7" t="n">
         <v>12</v>
       </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
       <c r="AA1" s="7" t="n">
         <v>13</v>
       </c>
@@ -636,6 +641,11 @@
       </c>
       <c r="AC1" s="7" t="n">
         <v>14</v>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
       </c>
       <c r="AE1" s="7" t="n">
         <v>15</v>
@@ -654,22 +664,17 @@
     <row r="2" ht="20" customHeight="1">
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
         </is>
       </c>
       <c r="M2" s="2" t="inlineStr">
         <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="O2" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
+          <t>↑</t>
         </is>
       </c>
       <c r="Q2" s="2" t="inlineStr">
@@ -682,14 +687,9 @@
           <t>↑</t>
         </is>
       </c>
-      <c r="W2" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
       <c r="Y2" s="2" t="inlineStr">
         <is>
-          <t>↑</t>
+          <t>↓</t>
         </is>
       </c>
       <c r="AA2" s="2" t="inlineStr">
@@ -697,9 +697,9 @@
           <t>↑</t>
         </is>
       </c>
-      <c r="AE2" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
+      <c r="AC2" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
         </is>
       </c>
       <c r="AG2" s="8" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="AH2" s="2" t="inlineStr">
         <is>
-          <t>4 → 9</t>
+          <t>2 → 6</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>←</t>
         </is>
       </c>
       <c r="C3" s="1" t="n">
@@ -728,53 +728,58 @@
       <c r="E3" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
       <c r="G3" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
       <c r="I3" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
       <c r="K3" s="3" t="n">
         <v>21</v>
       </c>
       <c r="M3" s="3" t="n">
         <v>22</v>
       </c>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
       <c r="O3" s="3" t="n">
         <v>23</v>
       </c>
       <c r="Q3" s="6" t="n">
         <v>24</v>
       </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
       <c r="S3" s="6" t="n">
         <v>25</v>
       </c>
+      <c r="T3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
       <c r="U3" s="6" t="n">
         <v>26</v>
       </c>
       <c r="V3" s="2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>→</t>
         </is>
       </c>
       <c r="W3" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="X3" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
       <c r="Y3" s="7" t="n">
         <v>28</v>
       </c>
@@ -786,7 +791,7 @@
       </c>
       <c r="AD3" s="2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>→</t>
         </is>
       </c>
       <c r="AE3" s="7" t="n">
@@ -799,14 +804,14 @@
       </c>
       <c r="AH3" s="2" t="inlineStr">
         <is>
-          <t>3 → 9</t>
+          <t>0 → 7</t>
         </is>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -814,9 +819,19 @@
           <t>↑</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -824,11 +839,6 @@
           <t>↓</t>
         </is>
       </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
           <t>↓</t>
@@ -836,7 +846,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>↑</t>
+          <t>↓</t>
         </is>
       </c>
       <c r="AA4" s="2" t="inlineStr">
@@ -844,14 +854,9 @@
           <t>↑</t>
         </is>
       </c>
-      <c r="AC4" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
       <c r="AE4" s="2" t="inlineStr">
         <is>
-          <t>↑</t>
+          <t>↓</t>
         </is>
       </c>
       <c r="AG4" s="10" t="inlineStr">
@@ -861,7 +866,7 @@
       </c>
       <c r="AH4" s="2" t="inlineStr">
         <is>
-          <t>2 → 9</t>
+          <t>0 → 9</t>
         </is>
       </c>
     </row>
@@ -879,17 +884,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>→</t>
         </is>
       </c>
       <c r="E5" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
       <c r="G5" s="1" t="n">
         <v>35</v>
       </c>
@@ -925,6 +925,11 @@
       <c r="O5" s="3" t="n">
         <v>39</v>
       </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
       <c r="Q5" s="6" t="n">
         <v>40</v>
       </c>
@@ -947,17 +952,12 @@
       </c>
       <c r="Z5" s="2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>→</t>
         </is>
       </c>
       <c r="AA5" s="7" t="n">
         <v>45</v>
       </c>
-      <c r="AB5" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
       <c r="AC5" s="7" t="n">
         <v>46</v>
       </c>
@@ -971,7 +971,7 @@
       </c>
       <c r="AH5" s="2" t="inlineStr">
         <is>
-          <t>4 → 6</t>
+          <t>0 → 7</t>
         </is>
       </c>
     </row>
@@ -981,11 +981,6 @@
           <t>↓</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
           <t>↓</t>
@@ -996,27 +991,27 @@
           <t>↓</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="W6" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AE6" s="2" t="inlineStr">
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="Y6" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="AA6" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="AC6" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
@@ -1028,7 +1023,7 @@
       </c>
       <c r="AH6" s="2" t="inlineStr">
         <is>
-          <t>1 → 9</t>
+          <t>2 → 9</t>
         </is>
       </c>
     </row>
@@ -1036,6 +1031,11 @@
       <c r="A7" s="1" t="n">
         <v>48</v>
       </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
       <c r="C7" s="1" t="n">
         <v>49</v>
       </c>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>←</t>
         </is>
       </c>
       <c r="K7" s="3" t="n">
@@ -1058,29 +1058,34 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>←</t>
         </is>
       </c>
       <c r="M7" s="3" t="n">
         <v>54</v>
       </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
       <c r="O7" s="3" t="n">
         <v>55</v>
       </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
       <c r="Q7" s="6" t="n">
         <v>56</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
       <c r="S7" s="6" t="n">
         <v>57</v>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>←</t>
         </is>
       </c>
       <c r="U7" s="6" t="n">
@@ -1101,11 +1106,6 @@
       </c>
       <c r="Y7" s="7" t="n">
         <v>60</v>
-      </c>
-      <c r="Z7" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
       </c>
       <c r="AA7" s="7" t="n">
         <v>61</v>
@@ -1203,11 +1203,6 @@
       <c r="E1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="n">
         <v>3</v>
       </c>
@@ -1227,6 +1222,11 @@
       <c r="K1" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
       <c r="M1" s="3" t="n">
         <v>6</v>
       </c>
@@ -1273,11 +1273,6 @@
       <c r="Y1" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="Z1" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
       <c r="AA1" s="7" t="n">
         <v>13</v>
       </c>
@@ -1309,19 +1304,19 @@
       </c>
     </row>
     <row r="2" ht="20" customHeight="1">
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>↓</t>
+          <t>↑</t>
         </is>
       </c>
       <c r="O2" s="2" t="inlineStr">
@@ -1344,9 +1339,9 @@
           <t>↑</t>
         </is>
       </c>
-      <c r="AE2" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
+      <c r="AA2" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
         </is>
       </c>
       <c r="AG2" s="8" t="inlineStr">
@@ -1356,7 +1351,7 @@
       </c>
       <c r="AH2" s="2" t="inlineStr">
         <is>
-          <t>4 → 9</t>
+          <t>2 → 6</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1361,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>←</t>
         </is>
       </c>
       <c r="C3" s="1" t="n">
@@ -1375,39 +1370,34 @@
       <c r="E3" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
       <c r="G3" s="1" t="n">
         <v>19</v>
       </c>
       <c r="I3" s="3" t="n">
         <v>20</v>
       </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
       <c r="K3" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
       <c r="M3" s="3" t="n">
         <v>22</v>
       </c>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
       <c r="O3" s="3" t="n">
         <v>23</v>
       </c>
       <c r="Q3" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
       <c r="S3" s="6" t="n">
         <v>25</v>
       </c>
@@ -1419,6 +1409,11 @@
       <c r="U3" s="6" t="n">
         <v>26</v>
       </c>
+      <c r="V3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
       <c r="W3" s="6" t="n">
         <v>27</v>
       </c>
@@ -1438,7 +1433,7 @@
       </c>
       <c r="AD3" s="2" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>←</t>
         </is>
       </c>
       <c r="AE3" s="7" t="n">
@@ -1451,14 +1446,14 @@
       </c>
       <c r="AH3" s="2" t="inlineStr">
         <is>
-          <t>3 → 9</t>
+          <t>0 → 7</t>
         </is>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -1468,11 +1463,6 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
           <t>↑</t>
         </is>
       </c>
@@ -1483,27 +1473,22 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
+          <t>↓</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>↓</t>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="Y4" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
         </is>
       </c>
       <c r="AC4" s="2" t="inlineStr">
         <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AE4" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
+          <t>↓</t>
         </is>
       </c>
       <c r="AG4" s="10" t="inlineStr">
@@ -1513,7 +1498,7 @@
       </c>
       <c r="AH4" s="2" t="inlineStr">
         <is>
-          <t>2 → 9</t>
+          <t>0 → 9</t>
         </is>
       </c>
     </row>
@@ -1521,27 +1506,12 @@
       <c r="A5" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
       <c r="C5" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
       <c r="E5" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
       <c r="G5" s="1" t="n">
         <v>35</v>
       </c>
@@ -1550,7 +1520,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>←</t>
         </is>
       </c>
       <c r="K5" s="3" t="n">
@@ -1559,28 +1529,33 @@
       <c r="M5" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
       <c r="O5" s="3" t="n">
         <v>39</v>
       </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
       <c r="Q5" s="6" t="n">
         <v>40</v>
       </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
       <c r="S5" s="6" t="n">
         <v>41</v>
       </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
       <c r="U5" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="V5" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
       <c r="W5" s="6" t="n">
         <v>43</v>
       </c>
@@ -1595,9 +1570,19 @@
       <c r="AA5" s="7" t="n">
         <v>45</v>
       </c>
+      <c r="AB5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
       <c r="AC5" s="7" t="n">
         <v>46</v>
       </c>
+      <c r="AD5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
       <c r="AE5" s="7" t="n">
         <v>47</v>
       </c>
@@ -1608,22 +1593,37 @@
       </c>
       <c r="AH5" s="2" t="inlineStr">
         <is>
-          <t>4 → 6</t>
+          <t>0 → 7</t>
         </is>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
@@ -1633,14 +1633,19 @@
           <t>↑</t>
         </is>
       </c>
-      <c r="U6" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="Y6" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="AA6" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="AC6" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
         </is>
       </c>
       <c r="AG6" s="12" t="inlineStr">
@@ -1650,7 +1655,7 @@
       </c>
       <c r="AH6" s="2" t="inlineStr">
         <is>
-          <t>1 → 9</t>
+          <t>2 → 9</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1665,7 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>→</t>
         </is>
       </c>
       <c r="C7" s="1" t="n">
@@ -1668,7 +1673,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>→</t>
         </is>
       </c>
       <c r="E7" s="1" t="n">
@@ -1676,7 +1681,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>→</t>
         </is>
       </c>
       <c r="G7" s="1" t="n">
@@ -1684,7 +1689,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>→</t>
         </is>
       </c>
       <c r="I7" s="3" t="n">
@@ -1692,18 +1697,23 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>→</t>
         </is>
       </c>
       <c r="K7" s="3" t="n">
         <v>53</v>
       </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
       <c r="M7" s="3" t="n">
         <v>54</v>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>→</t>
         </is>
       </c>
       <c r="O7" s="3" t="n">
@@ -1720,37 +1730,27 @@
       <c r="S7" s="6" t="n">
         <v>57</v>
       </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
       <c r="U7" s="6" t="n">
         <v>58</v>
       </c>
-      <c r="V7" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
       <c r="W7" s="6" t="n">
         <v>59</v>
       </c>
-      <c r="X7" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
       <c r="Y7" s="7" t="n">
         <v>60</v>
       </c>
       <c r="Z7" s="2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>→</t>
         </is>
       </c>
       <c r="AA7" s="7" t="n">
         <v>61</v>
-      </c>
-      <c r="AB7" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
       </c>
       <c r="AC7" s="7" t="n">
         <v>62</v>

--- a/results_Potential_NextBlock.xlsx
+++ b/results_Potential_NextBlock.xlsx
@@ -27,7 +27,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -36,12 +36,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC0CB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0087CEEB"/>
+        <fgColor rgb="000000FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -51,7 +46,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="000000FF"/>
+        <fgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -61,12 +56,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FAEBD7"/>
+        <fgColor rgb="00FFC0CB"/>
       </patternFill>
     </fill>
   </fills>
@@ -110,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
@@ -121,31 +111,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -157,7 +135,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -525,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,7 +579,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="I1" s="4" t="n">
+      <c r="I1" s="3" t="n">
         <v>4</v>
       </c>
       <c r="J1" s="2" t="inlineStr">
@@ -609,7 +587,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="K1" s="4" t="n">
+      <c r="K1" s="3" t="n">
         <v>5</v>
       </c>
       <c r="L1" s="2" t="inlineStr">
@@ -617,7 +595,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="M1" s="4" t="n">
+      <c r="M1" s="3" t="n">
         <v>6</v>
       </c>
       <c r="N1" s="2" t="inlineStr">
@@ -625,7 +603,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="O1" s="4" t="n">
+      <c r="O1" s="3" t="n">
         <v>7</v>
       </c>
       <c r="P1" s="2" t="inlineStr">
@@ -633,7 +611,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="Q1" s="5" t="n">
+      <c r="Q1" s="4" t="n">
         <v>8</v>
       </c>
       <c r="R1" s="2" t="inlineStr">
@@ -641,13 +619,18 @@
           <t>→</t>
         </is>
       </c>
-      <c r="S1" s="6" t="n">
+      <c r="S1" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="U1" s="7" t="n">
+      <c r="U1" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="W1" s="7" t="n">
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="W1" s="6" t="n">
         <v>11</v>
       </c>
       <c r="X1" s="2" t="inlineStr">
@@ -655,7 +638,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="Y1" s="3" t="n">
+      <c r="Y1" s="6" t="n">
         <v>12</v>
       </c>
       <c r="Z1" s="2" t="inlineStr">
@@ -663,10 +646,15 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AA1" s="3" t="n">
+      <c r="AA1" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="AC1" s="3" t="n">
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AC1" s="6" t="n">
         <v>14</v>
       </c>
       <c r="AD1" s="2" t="inlineStr">
@@ -674,7 +662,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AE1" s="3" t="n">
+      <c r="AE1" s="6" t="n">
         <v>15</v>
       </c>
       <c r="AG1" s="2" t="inlineStr">
@@ -689,69 +677,29 @@
       </c>
     </row>
     <row r="2" ht="20" customHeight="1">
-      <c r="E2" s="2" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="O2" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="Q2" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="U2" s="2" t="inlineStr">
+      <c r="W2" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
       </c>
-      <c r="W2" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AA2" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AC2" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AG2" s="8" t="inlineStr">
+      <c r="AG2" s="7" t="inlineStr">
         <is>
           <t>car 0</t>
         </is>
       </c>
       <c r="AH2" s="2" t="inlineStr">
         <is>
-          <t>0 → 5</t>
+          <t>3 → 5</t>
         </is>
       </c>
     </row>
     <row r="3" ht="50" customHeight="1">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="8" t="n">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -759,7 +707,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="8" t="n">
         <v>17</v>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -767,10 +715,15 @@
           <t>←</t>
         </is>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="G3" s="9" t="n">
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="n">
         <v>19</v>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -778,19 +731,39 @@
           <t>←</t>
         </is>
       </c>
-      <c r="I3" s="9" t="n">
+      <c r="I3" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="M3" s="4" t="n">
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="O3" s="4" t="n">
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="O3" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="Q3" s="7" t="n">
+      <c r="P3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="Q3" s="3" t="n">
         <v>24</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
@@ -798,7 +771,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="S3" s="7" t="n">
+      <c r="S3" s="3" t="n">
         <v>25</v>
       </c>
       <c r="T3" s="2" t="inlineStr">
@@ -806,7 +779,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="U3" s="7" t="n">
+      <c r="U3" s="6" t="n">
         <v>26</v>
       </c>
       <c r="V3" s="2" t="inlineStr">
@@ -814,18 +787,23 @@
           <t>→</t>
         </is>
       </c>
-      <c r="W3" s="7" t="n">
+      <c r="W3" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="Y3" s="3" t="n">
+      <c r="X3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="Y3" s="6" t="n">
         <v>28</v>
       </c>
       <c r="Z3" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="AA3" s="3" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AA3" s="6" t="n">
         <v>29</v>
       </c>
       <c r="AB3" s="2" t="inlineStr">
@@ -833,7 +811,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AC3" s="3" t="n">
+      <c r="AC3" s="6" t="n">
         <v>30</v>
       </c>
       <c r="AD3" s="2" t="inlineStr">
@@ -841,64 +819,39 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AE3" s="3" t="n">
+      <c r="AE3" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="AG3" s="10" t="inlineStr">
+      <c r="AG3" s="9" t="inlineStr">
         <is>
           <t>car 1</t>
         </is>
       </c>
       <c r="AH3" s="2" t="inlineStr">
         <is>
-          <t>1 → 6</t>
+          <t>0 → 9</t>
         </is>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="E4" s="2" t="inlineStr">
+      <c r="S4" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AG4" s="11" t="inlineStr">
+      <c r="AG4" s="10" t="inlineStr">
         <is>
           <t>car 2</t>
         </is>
       </c>
       <c r="AH4" s="2" t="inlineStr">
         <is>
-          <t>4 → 6</t>
+          <t>0 → 7</t>
         </is>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="8" t="n">
         <v>32</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -906,16 +859,31 @@
           <t>←</t>
         </is>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="8" t="n">
         <v>33</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="G5" s="9" t="n">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="I5" s="12" t="n">
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="n">
         <v>36</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -923,27 +891,47 @@
           <t>←</t>
         </is>
       </c>
-      <c r="K5" s="12" t="n">
+      <c r="K5" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="M5" s="12" t="n">
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="n">
         <v>38</v>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="O5" s="12" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="Q5" s="12" t="n">
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="S5" s="12" t="n">
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="U5" s="7" t="n">
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="U5" s="6" t="n">
         <v>42</v>
       </c>
       <c r="V5" s="2" t="inlineStr">
@@ -951,7 +939,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="W5" s="7" t="n">
+      <c r="W5" s="6" t="n">
         <v>43</v>
       </c>
       <c r="X5" s="2" t="inlineStr">
@@ -959,7 +947,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="Y5" s="3" t="n">
+      <c r="Y5" s="6" t="n">
         <v>44</v>
       </c>
       <c r="Z5" s="2" t="inlineStr">
@@ -967,7 +955,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AA5" s="3" t="n">
+      <c r="AA5" s="6" t="n">
         <v>45</v>
       </c>
       <c r="AB5" s="2" t="inlineStr">
@@ -975,90 +963,55 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AC5" s="3" t="n">
+      <c r="AC5" s="6" t="n">
         <v>46</v>
       </c>
-      <c r="AE5" s="3" t="n">
+      <c r="AD5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AE5" s="6" t="n">
         <v>47</v>
       </c>
-      <c r="AG5" s="13" t="inlineStr">
+      <c r="AG5" s="11" t="inlineStr">
         <is>
           <t>car 3</t>
         </is>
       </c>
       <c r="AH5" s="2" t="inlineStr">
         <is>
-          <t>3 → 5</t>
+          <t>4 → 5</t>
         </is>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="U6" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="W6" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="Y6" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AA6" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AE6" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AG6" s="14" t="inlineStr">
-        <is>
-          <t>car 4</t>
+      <c r="AG6" s="12" t="inlineStr">
+        <is>
+          <t>dummy car</t>
         </is>
       </c>
       <c r="AH6" s="2" t="inlineStr">
         <is>
-          <t>3 → 8</t>
+          <t>4 → 6</t>
         </is>
       </c>
     </row>
     <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="8" t="n">
         <v>48</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="n">
         <v>49</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -1066,10 +1019,15 @@
           <t>←</t>
         </is>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="n">
         <v>51</v>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1077,59 +1035,79 @@
           <t>←</t>
         </is>
       </c>
-      <c r="I7" s="12" t="n">
+      <c r="I7" s="3" t="n">
         <v>52</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="K7" s="12" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="n">
         <v>53</v>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="M7" s="12" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="n">
         <v>54</v>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="O7" s="12" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="O7" s="3" t="n">
         <v>55</v>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="Q7" s="12" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="Q7" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="S7" s="12" t="n">
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="S7" s="3" t="n">
         <v>57</v>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="U7" s="7" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="U7" s="6" t="n">
         <v>58</v>
       </c>
-      <c r="W7" s="7" t="n">
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="W7" s="6" t="n">
         <v>59</v>
       </c>
-      <c r="Y7" s="3" t="n">
+      <c r="X7" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="Y7" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="AA7" s="3" t="n">
+      <c r="Z7" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AA7" s="6" t="n">
         <v>61</v>
       </c>
       <c r="AB7" s="2" t="inlineStr">
@@ -1137,7 +1115,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AC7" s="3" t="n">
+      <c r="AC7" s="6" t="n">
         <v>62</v>
       </c>
       <c r="AD7" s="2" t="inlineStr">
@@ -1145,32 +1123,11 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AE7" s="3" t="n">
+      <c r="AE7" s="6" t="n">
         <v>63</v>
       </c>
-      <c r="AG7" s="15" t="inlineStr">
-        <is>
-          <t>car 5</t>
-        </is>
-      </c>
-      <c r="AH7" s="2" t="inlineStr">
-        <is>
-          <t>3 → 8</t>
-        </is>
-      </c>
     </row>
-    <row r="8" ht="20" customHeight="1">
-      <c r="AG8" s="16" t="inlineStr">
-        <is>
-          <t>dummy car</t>
-        </is>
-      </c>
-      <c r="AH8" s="2" t="inlineStr">
-        <is>
-          <t>3 → 9</t>
-        </is>
-      </c>
-    </row>
+    <row r="8" ht="20" customHeight="1"/>
     <row r="9" ht="50" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1183,7 +1140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1230,6 +1187,11 @@
       <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
       <c r="C1" s="1" t="n">
         <v>1</v>
       </c>
@@ -1254,10 +1216,15 @@
           <t>→</t>
         </is>
       </c>
-      <c r="I1" s="4" t="n">
+      <c r="I1" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="K1" s="4" t="n">
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n">
         <v>5</v>
       </c>
       <c r="L1" s="2" t="inlineStr">
@@ -1265,7 +1232,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="M1" s="4" t="n">
+      <c r="M1" s="3" t="n">
         <v>6</v>
       </c>
       <c r="N1" s="2" t="inlineStr">
@@ -1273,7 +1240,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="O1" s="4" t="n">
+      <c r="O1" s="3" t="n">
         <v>7</v>
       </c>
       <c r="P1" s="2" t="inlineStr">
@@ -1281,7 +1248,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="Q1" s="5" t="n">
+      <c r="Q1" s="4" t="n">
         <v>8</v>
       </c>
       <c r="R1" s="2" t="inlineStr">
@@ -1289,35 +1256,50 @@
           <t>←</t>
         </is>
       </c>
-      <c r="S1" s="6" t="n">
+      <c r="S1" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="U1" s="7" t="n">
+      <c r="U1" s="6" t="n">
         <v>10</v>
       </c>
       <c r="V1" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="W1" s="7" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="W1" s="6" t="n">
         <v>11</v>
       </c>
       <c r="X1" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="Y1" s="3" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="Y1" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="AA1" s="3" t="n">
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AA1" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="AC1" s="3" t="n">
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AC1" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="AE1" s="3" t="n">
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AE1" s="6" t="n">
         <v>15</v>
       </c>
       <c r="AG1" s="2" t="inlineStr">
@@ -1332,97 +1314,77 @@
       </c>
     </row>
     <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="AA2" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="Q2" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="U2" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AA2" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AC2" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AE2" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AG2" s="8" t="inlineStr">
+      <c r="AG2" s="7" t="inlineStr">
         <is>
           <t>car 0</t>
         </is>
       </c>
       <c r="AH2" s="2" t="inlineStr">
         <is>
-          <t>0 → 5</t>
+          <t>3 → 5</t>
         </is>
       </c>
     </row>
     <row r="3" ht="50" customHeight="1">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="G3" s="9" t="n">
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="n">
         <v>19</v>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="I3" s="9" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="n">
         <v>20</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="K3" s="4" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="M3" s="4" t="n">
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="n">
         <v>22</v>
       </c>
       <c r="N3" s="2" t="inlineStr">
@@ -1430,10 +1392,15 @@
           <t>←</t>
         </is>
       </c>
-      <c r="O3" s="4" t="n">
+      <c r="O3" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="Q3" s="7" t="n">
+      <c r="P3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="Q3" s="3" t="n">
         <v>24</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
@@ -1441,7 +1408,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="S3" s="7" t="n">
+      <c r="S3" s="3" t="n">
         <v>25</v>
       </c>
       <c r="T3" s="2" t="inlineStr">
@@ -1449,10 +1416,15 @@
           <t>←</t>
         </is>
       </c>
-      <c r="U3" s="7" t="n">
+      <c r="U3" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="W3" s="7" t="n">
+      <c r="V3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="W3" s="6" t="n">
         <v>27</v>
       </c>
       <c r="X3" s="2" t="inlineStr">
@@ -1460,10 +1432,15 @@
           <t>←</t>
         </is>
       </c>
-      <c r="Y3" s="3" t="n">
+      <c r="Y3" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="AA3" s="3" t="n">
+      <c r="Z3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AA3" s="6" t="n">
         <v>29</v>
       </c>
       <c r="AB3" s="2" t="inlineStr">
@@ -1471,92 +1448,47 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AC3" s="3" t="n">
+      <c r="AC3" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="AE3" s="3" t="n">
+      <c r="AD3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AE3" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="AG3" s="10" t="inlineStr">
+      <c r="AG3" s="9" t="inlineStr">
         <is>
           <t>car 1</t>
         </is>
       </c>
       <c r="AH3" s="2" t="inlineStr">
         <is>
-          <t>1 → 6</t>
+          <t>0 → 9</t>
         </is>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
           <t>↑</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="W4" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AA4" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AC4" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AE4" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AG4" s="11" t="inlineStr">
+      <c r="AG4" s="10" t="inlineStr">
         <is>
           <t>car 2</t>
         </is>
       </c>
       <c r="AH4" s="2" t="inlineStr">
         <is>
-          <t>4 → 6</t>
+          <t>0 → 7</t>
         </is>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="8" t="n">
         <v>32</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -1564,32 +1496,47 @@
           <t>→</t>
         </is>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="8" t="n">
         <v>33</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
         <v>34</v>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G5" s="9" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="I5" s="12" t="n">
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="K5" s="12" t="n">
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="n">
         <v>37</v>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="M5" s="12" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="n">
         <v>38</v>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -1597,21 +1544,31 @@
           <t>←</t>
         </is>
       </c>
-      <c r="O5" s="12" t="n">
+      <c r="O5" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="Q5" s="12" t="n">
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="n">
         <v>40</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="S5" s="12" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="U5" s="7" t="n">
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="U5" s="6" t="n">
         <v>42</v>
       </c>
       <c r="V5" s="2" t="inlineStr">
@@ -1619,7 +1576,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="W5" s="7" t="n">
+      <c r="W5" s="6" t="n">
         <v>43</v>
       </c>
       <c r="X5" s="2" t="inlineStr">
@@ -1627,7 +1584,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="Y5" s="3" t="n">
+      <c r="Y5" s="6" t="n">
         <v>44</v>
       </c>
       <c r="Z5" s="2" t="inlineStr">
@@ -1635,10 +1592,15 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AA5" s="3" t="n">
+      <c r="AA5" s="6" t="n">
         <v>45</v>
       </c>
-      <c r="AC5" s="3" t="n">
+      <c r="AB5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AC5" s="6" t="n">
         <v>46</v>
       </c>
       <c r="AD5" s="2" t="inlineStr">
@@ -1646,69 +1608,39 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AE5" s="3" t="n">
+      <c r="AE5" s="6" t="n">
         <v>47</v>
       </c>
-      <c r="AG5" s="13" t="inlineStr">
+      <c r="AG5" s="11" t="inlineStr">
         <is>
           <t>car 3</t>
         </is>
       </c>
       <c r="AH5" s="2" t="inlineStr">
         <is>
-          <t>3 → 5</t>
+          <t>4 → 5</t>
         </is>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
           <t>↑</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AA6" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AC6" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AG6" s="14" t="inlineStr">
-        <is>
-          <t>car 4</t>
+      <c r="AG6" s="12" t="inlineStr">
+        <is>
+          <t>dummy car</t>
         </is>
       </c>
       <c r="AH6" s="2" t="inlineStr">
         <is>
-          <t>3 → 8</t>
+          <t>4 → 6</t>
         </is>
       </c>
     </row>
     <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="8" t="n">
         <v>48</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -1716,40 +1648,55 @@
           <t>→</t>
         </is>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="8" t="n">
         <v>49</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="n">
         <v>50</v>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G7" s="9" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="n">
         <v>51</v>
       </c>
-      <c r="I7" s="12" t="n">
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="n">
         <v>52</v>
       </c>
-      <c r="K7" s="12" t="n">
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="n">
         <v>53</v>
       </c>
-      <c r="M7" s="12" t="n">
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="n">
         <v>54</v>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="O7" s="12" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="O7" s="3" t="n">
         <v>55</v>
       </c>
       <c r="P7" s="2" t="inlineStr">
@@ -1757,7 +1704,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="Q7" s="12" t="n">
+      <c r="Q7" s="3" t="n">
         <v>56</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
@@ -1765,7 +1712,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="S7" s="12" t="n">
+      <c r="S7" s="3" t="n">
         <v>57</v>
       </c>
       <c r="T7" s="2" t="inlineStr">
@@ -1773,7 +1720,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="U7" s="7" t="n">
+      <c r="U7" s="6" t="n">
         <v>58</v>
       </c>
       <c r="V7" s="2" t="inlineStr">
@@ -1781,21 +1728,31 @@
           <t>←</t>
         </is>
       </c>
-      <c r="W7" s="7" t="n">
+      <c r="W7" s="6" t="n">
         <v>59</v>
       </c>
-      <c r="Y7" s="3" t="n">
+      <c r="X7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="Y7" s="6" t="n">
         <v>60</v>
       </c>
       <c r="Z7" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AA7" s="3" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AA7" s="6" t="n">
         <v>61</v>
       </c>
-      <c r="AC7" s="3" t="n">
+      <c r="AB7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AC7" s="6" t="n">
         <v>62</v>
       </c>
       <c r="AD7" s="2" t="inlineStr">
@@ -1803,32 +1760,11 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AE7" s="3" t="n">
+      <c r="AE7" s="6" t="n">
         <v>63</v>
       </c>
-      <c r="AG7" s="15" t="inlineStr">
-        <is>
-          <t>car 5</t>
-        </is>
-      </c>
-      <c r="AH7" s="2" t="inlineStr">
-        <is>
-          <t>3 → 8</t>
-        </is>
-      </c>
     </row>
-    <row r="8" ht="20" customHeight="1">
-      <c r="AG8" s="16" t="inlineStr">
-        <is>
-          <t>dummy car</t>
-        </is>
-      </c>
-      <c r="AH8" s="2" t="inlineStr">
-        <is>
-          <t>3 → 9</t>
-        </is>
-      </c>
-    </row>
+    <row r="8" ht="20" customHeight="1"/>
     <row r="9" ht="50" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results_Potential_NextBlock.xlsx
+++ b/results_Potential_NextBlock.xlsx
@@ -27,12 +27,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0087CEEB"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -57,6 +62,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FFC0CB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAEBD7"/>
       </patternFill>
     </fill>
   </fills>
@@ -100,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
@@ -114,28 +124,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -503,7 +525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH7"/>
+  <dimension ref="A1:AH8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,11 +572,6 @@
       <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="n">
         <v>1</v>
       </c>
@@ -571,15 +588,10 @@
           <t>←</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n">
+      <c r="G1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="I1" s="3" t="n">
+      <c r="I1" s="1" t="n">
         <v>4</v>
       </c>
       <c r="J1" s="2" t="inlineStr">
@@ -590,11 +602,6 @@
       <c r="K1" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
       <c r="M1" s="3" t="n">
         <v>6</v>
       </c>
@@ -627,18 +634,13 @@
       </c>
       <c r="V1" s="2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>→</t>
         </is>
       </c>
       <c r="W1" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="X1" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="Y1" s="6" t="n">
+      <c r="Y1" s="7" t="n">
         <v>12</v>
       </c>
       <c r="Z1" s="2" t="inlineStr">
@@ -646,15 +648,10 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AA1" s="6" t="n">
+      <c r="AA1" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="AB1" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AC1" s="6" t="n">
+      <c r="AC1" s="7" t="n">
         <v>14</v>
       </c>
       <c r="AD1" s="2" t="inlineStr">
@@ -662,7 +659,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AE1" s="6" t="n">
+      <c r="AE1" s="7" t="n">
         <v>15</v>
       </c>
       <c r="AG1" s="2" t="inlineStr">
@@ -677,53 +674,83 @@
       </c>
     </row>
     <row r="2" ht="20" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="U2" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
       <c r="W2" s="2" t="inlineStr">
         <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="Y2" s="2" t="inlineStr">
+        <is>
           <t>↑</t>
         </is>
       </c>
-      <c r="AG2" s="7" t="inlineStr">
+      <c r="AA2" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="AC2" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="AG2" s="8" t="inlineStr">
         <is>
           <t>car 0</t>
         </is>
       </c>
       <c r="AH2" s="2" t="inlineStr">
         <is>
-          <t>3 → 5</t>
+          <t>0 → 9</t>
         </is>
       </c>
     </row>
     <row r="3" ht="50" customHeight="1">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="1" t="n">
         <v>19</v>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -731,20 +758,15 @@
           <t>←</t>
         </is>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="1" t="n">
         <v>20</v>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
       </c>
       <c r="K3" s="3" t="n">
         <v>21</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>←</t>
         </is>
       </c>
       <c r="M3" s="3" t="n">
@@ -752,41 +774,26 @@
       </c>
       <c r="N3" s="2" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>←</t>
         </is>
       </c>
       <c r="O3" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="P3" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
       <c r="Q3" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="S3" s="3" t="n">
+      <c r="S3" s="6" t="n">
         <v>25</v>
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>←</t>
         </is>
       </c>
       <c r="U3" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="V3" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
       <c r="W3" s="6" t="n">
         <v>27</v>
       </c>
@@ -798,28 +805,13 @@
       <c r="Y3" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="Z3" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AA3" s="6" t="n">
+      <c r="AA3" s="7" t="n">
         <v>29</v>
       </c>
-      <c r="AB3" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AC3" s="6" t="n">
+      <c r="AC3" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="AD3" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AE3" s="6" t="n">
+      <c r="AE3" s="7" t="n">
         <v>31</v>
       </c>
       <c r="AG3" s="9" t="inlineStr">
@@ -829,16 +821,61 @@
       </c>
       <c r="AH3" s="2" t="inlineStr">
         <is>
-          <t>0 → 9</t>
+          <t>0 → 7</t>
         </is>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="S4" s="2" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="AA4" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="AC4" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="AE4" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
       <c r="AG4" s="10" t="inlineStr">
         <is>
           <t>car 2</t>
@@ -846,12 +883,12 @@
       </c>
       <c r="AH4" s="2" t="inlineStr">
         <is>
-          <t>0 → 7</t>
+          <t>4 → 5</t>
         </is>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -859,7 +896,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="1" t="n">
         <v>33</v>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -867,7 +904,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="1" t="n">
         <v>34</v>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -875,21 +912,11 @@
           <t>←</t>
         </is>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="1" t="n">
         <v>36</v>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
       </c>
       <c r="K5" s="3" t="n">
         <v>37</v>
@@ -902,11 +929,6 @@
       <c r="M5" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
       <c r="O5" s="3" t="n">
         <v>39</v>
       </c>
@@ -920,16 +942,11 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="S5" s="3" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="S5" s="6" t="n">
         <v>41</v>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
       </c>
       <c r="U5" s="6" t="n">
         <v>42</v>
@@ -950,60 +967,95 @@
       <c r="Y5" s="6" t="n">
         <v>44</v>
       </c>
-      <c r="Z5" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AA5" s="6" t="n">
+      <c r="AA5" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="AB5" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AC5" s="6" t="n">
+      <c r="AC5" s="11" t="n">
         <v>46</v>
       </c>
-      <c r="AD5" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AE5" s="6" t="n">
+      <c r="AE5" s="11" t="n">
         <v>47</v>
       </c>
-      <c r="AG5" s="11" t="inlineStr">
+      <c r="AG5" s="12" t="inlineStr">
         <is>
           <t>car 3</t>
         </is>
       </c>
       <c r="AH5" s="2" t="inlineStr">
         <is>
-          <t>4 → 5</t>
+          <t>4 → 6</t>
         </is>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="AG6" s="12" t="inlineStr">
-        <is>
-          <t>dummy car</t>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="Y6" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="AC6" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="AE6" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="AG6" s="13" t="inlineStr">
+        <is>
+          <t>car 4</t>
         </is>
       </c>
       <c r="AH6" s="2" t="inlineStr">
         <is>
-          <t>4 → 6</t>
+          <t>0 → 5</t>
         </is>
       </c>
     </row>
     <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="8" t="n">
+      <c r="A7" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -1011,71 +1063,51 @@
           <t>←</t>
         </is>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="1" t="n">
         <v>49</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="1" t="n">
         <v>51</v>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="K7" s="3" t="n">
+      <c r="K7" s="14" t="n">
         <v>53</v>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>←</t>
         </is>
       </c>
       <c r="M7" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
       <c r="O7" s="3" t="n">
         <v>55</v>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>←</t>
         </is>
       </c>
       <c r="Q7" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="S7" s="3" t="n">
+      <c r="S7" s="6" t="n">
         <v>57</v>
       </c>
       <c r="T7" s="2" t="inlineStr">
@@ -1086,19 +1118,9 @@
       <c r="U7" s="6" t="n">
         <v>58</v>
       </c>
-      <c r="V7" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
       <c r="W7" s="6" t="n">
         <v>59</v>
       </c>
-      <c r="X7" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
       <c r="Y7" s="6" t="n">
         <v>60</v>
       </c>
@@ -1107,7 +1129,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AA7" s="6" t="n">
+      <c r="AA7" s="11" t="n">
         <v>61</v>
       </c>
       <c r="AB7" s="2" t="inlineStr">
@@ -1115,7 +1137,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AC7" s="6" t="n">
+      <c r="AC7" s="11" t="n">
         <v>62</v>
       </c>
       <c r="AD7" s="2" t="inlineStr">
@@ -1123,11 +1145,32 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AE7" s="6" t="n">
+      <c r="AE7" s="11" t="n">
         <v>63</v>
       </c>
+      <c r="AG7" s="15" t="inlineStr">
+        <is>
+          <t>car 5</t>
+        </is>
+      </c>
+      <c r="AH7" s="2" t="inlineStr">
+        <is>
+          <t>3 → 8</t>
+        </is>
+      </c>
     </row>
-    <row r="8" ht="20" customHeight="1"/>
+    <row r="8" ht="20" customHeight="1">
+      <c r="AG8" s="16" t="inlineStr">
+        <is>
+          <t>dummy car</t>
+        </is>
+      </c>
+      <c r="AH8" s="2" t="inlineStr">
+        <is>
+          <t>0 → 6</t>
+        </is>
+      </c>
+    </row>
     <row r="9" ht="50" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1140,7 +1183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH7"/>
+  <dimension ref="A1:AH8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,7 +1251,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n">
+      <c r="G1" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H1" s="2" t="inlineStr">
@@ -1216,7 +1259,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n">
+      <c r="I1" s="1" t="n">
         <v>4</v>
       </c>
       <c r="J1" s="2" t="inlineStr">
@@ -1272,18 +1315,18 @@
       </c>
       <c r="X1" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="Y1" s="6" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="Y1" s="7" t="n">
         <v>12</v>
       </c>
       <c r="Z1" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AA1" s="6" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AA1" s="7" t="n">
         <v>13</v>
       </c>
       <c r="AB1" s="2" t="inlineStr">
@@ -1291,7 +1334,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AC1" s="6" t="n">
+      <c r="AC1" s="7" t="n">
         <v>14</v>
       </c>
       <c r="AD1" s="2" t="inlineStr">
@@ -1299,7 +1342,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AE1" s="6" t="n">
+      <c r="AE1" s="7" t="n">
         <v>15</v>
       </c>
       <c r="AG1" s="2" t="inlineStr">
@@ -1314,29 +1357,29 @@
       </c>
     </row>
     <row r="2" ht="20" customHeight="1">
-      <c r="G2" s="2" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
       </c>
-      <c r="AA2" s="2" t="inlineStr">
+      <c r="W2" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="AG2" s="7" t="inlineStr">
+      <c r="AG2" s="8" t="inlineStr">
         <is>
           <t>car 0</t>
         </is>
       </c>
       <c r="AH2" s="2" t="inlineStr">
         <is>
-          <t>3 → 5</t>
+          <t>0 → 9</t>
         </is>
       </c>
     </row>
     <row r="3" ht="50" customHeight="1">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -1344,7 +1387,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="1" t="n">
         <v>17</v>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -1352,7 +1395,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="1" t="n">
         <v>18</v>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -1360,20 +1403,20 @@
           <t>→</t>
         </is>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="1" t="n">
         <v>19</v>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="n">
         <v>20</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>→</t>
         </is>
       </c>
       <c r="K3" s="3" t="n">
@@ -1408,7 +1451,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="S3" s="3" t="n">
+      <c r="S3" s="6" t="n">
         <v>25</v>
       </c>
       <c r="T3" s="2" t="inlineStr">
@@ -1440,7 +1483,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AA3" s="6" t="n">
+      <c r="AA3" s="7" t="n">
         <v>29</v>
       </c>
       <c r="AB3" s="2" t="inlineStr">
@@ -1448,7 +1491,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AC3" s="6" t="n">
+      <c r="AC3" s="7" t="n">
         <v>30</v>
       </c>
       <c r="AD3" s="2" t="inlineStr">
@@ -1456,7 +1499,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AE3" s="6" t="n">
+      <c r="AE3" s="7" t="n">
         <v>31</v>
       </c>
       <c r="AG3" s="9" t="inlineStr">
@@ -1466,12 +1509,12 @@
       </c>
       <c r="AH3" s="2" t="inlineStr">
         <is>
-          <t>0 → 9</t>
+          <t>0 → 7</t>
         </is>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="E4" s="2" t="inlineStr">
+      <c r="O4" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
@@ -1483,12 +1526,12 @@
       </c>
       <c r="AH4" s="2" t="inlineStr">
         <is>
-          <t>0 → 7</t>
+          <t>4 → 5</t>
         </is>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -1496,7 +1539,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="1" t="n">
         <v>33</v>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1504,28 +1547,28 @@
           <t>→</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="1" t="n">
         <v>34</v>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="n">
         <v>35</v>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
         <v>36</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>→</t>
         </is>
       </c>
       <c r="K5" s="3" t="n">
@@ -1533,7 +1576,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>→</t>
         </is>
       </c>
       <c r="M5" s="3" t="n">
@@ -1541,7 +1584,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>→</t>
         </is>
       </c>
       <c r="O5" s="3" t="n">
@@ -1560,7 +1603,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="S5" s="3" t="n">
+      <c r="S5" s="6" t="n">
         <v>41</v>
       </c>
       <c r="T5" s="2" t="inlineStr">
@@ -1592,7 +1635,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AA5" s="6" t="n">
+      <c r="AA5" s="11" t="n">
         <v>45</v>
       </c>
       <c r="AB5" s="2" t="inlineStr">
@@ -1600,7 +1643,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AC5" s="6" t="n">
+      <c r="AC5" s="11" t="n">
         <v>46</v>
       </c>
       <c r="AD5" s="2" t="inlineStr">
@@ -1608,39 +1651,39 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AE5" s="6" t="n">
+      <c r="AE5" s="11" t="n">
         <v>47</v>
       </c>
-      <c r="AG5" s="11" t="inlineStr">
+      <c r="AG5" s="12" t="inlineStr">
         <is>
           <t>car 3</t>
         </is>
       </c>
       <c r="AH5" s="2" t="inlineStr">
         <is>
-          <t>4 → 5</t>
+          <t>4 → 6</t>
         </is>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="C6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
       </c>
-      <c r="AG6" s="12" t="inlineStr">
-        <is>
-          <t>dummy car</t>
+      <c r="AG6" s="13" t="inlineStr">
+        <is>
+          <t>car 4</t>
         </is>
       </c>
       <c r="AH6" s="2" t="inlineStr">
         <is>
-          <t>4 → 6</t>
+          <t>0 → 5</t>
         </is>
       </c>
     </row>
     <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="8" t="n">
+      <c r="A7" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -1648,39 +1691,39 @@
           <t>→</t>
         </is>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="1" t="n">
         <v>49</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="n">
         <v>50</v>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="n">
         <v>51</v>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="n">
         <v>52</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="K7" s="3" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="K7" s="14" t="n">
         <v>53</v>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -1712,7 +1755,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="S7" s="3" t="n">
+      <c r="S7" s="6" t="n">
         <v>57</v>
       </c>
       <c r="T7" s="2" t="inlineStr">
@@ -1744,7 +1787,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AA7" s="6" t="n">
+      <c r="AA7" s="11" t="n">
         <v>61</v>
       </c>
       <c r="AB7" s="2" t="inlineStr">
@@ -1752,7 +1795,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AC7" s="6" t="n">
+      <c r="AC7" s="11" t="n">
         <v>62</v>
       </c>
       <c r="AD7" s="2" t="inlineStr">
@@ -1760,11 +1803,32 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AE7" s="6" t="n">
+      <c r="AE7" s="11" t="n">
         <v>63</v>
       </c>
+      <c r="AG7" s="15" t="inlineStr">
+        <is>
+          <t>car 5</t>
+        </is>
+      </c>
+      <c r="AH7" s="2" t="inlineStr">
+        <is>
+          <t>3 → 8</t>
+        </is>
+      </c>
     </row>
-    <row r="8" ht="20" customHeight="1"/>
+    <row r="8" ht="20" customHeight="1">
+      <c r="AG8" s="16" t="inlineStr">
+        <is>
+          <t>dummy car</t>
+        </is>
+      </c>
+      <c r="AH8" s="2" t="inlineStr">
+        <is>
+          <t>0 → 6</t>
+        </is>
+      </c>
+    </row>
     <row r="9" ht="50" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results_Potential_NextBlock.xlsx
+++ b/results_Potential_NextBlock.xlsx
@@ -41,17 +41,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="000000FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
+        <fgColor rgb="00FFC0CB"/>
       </patternFill>
     </fill>
     <fill>
@@ -61,7 +61,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC0CB"/>
+        <fgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -124,34 +124,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -577,7 +577,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>→</t>
         </is>
       </c>
       <c r="E1" s="1" t="n">
@@ -585,7 +585,7 @@
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>→</t>
         </is>
       </c>
       <c r="G1" s="1" t="n">
@@ -594,11 +594,6 @@
       <c r="I1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
       <c r="K1" s="3" t="n">
         <v>5</v>
       </c>
@@ -629,7 +624,12 @@
       <c r="S1" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="U1" s="6" t="n">
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="U1" s="5" t="n">
         <v>10</v>
       </c>
       <c r="V1" s="2" t="inlineStr">
@@ -637,10 +637,15 @@
           <t>→</t>
         </is>
       </c>
-      <c r="W1" s="6" t="n">
+      <c r="W1" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="Y1" s="7" t="n">
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="Y1" s="5" t="n">
         <v>12</v>
       </c>
       <c r="Z1" s="2" t="inlineStr">
@@ -648,8 +653,13 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AA1" s="7" t="n">
+      <c r="AA1" s="6" t="n">
         <v>13</v>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
       </c>
       <c r="AC1" s="7" t="n">
         <v>14</v>
@@ -679,54 +689,39 @@
           <t>↑</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="O2" s="2" t="inlineStr">
+      <c r="Q2" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="Q2" s="2" t="inlineStr">
+      <c r="S2" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="U2" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="W2" s="2" t="inlineStr">
+      <c r="AC2" s="2" t="inlineStr">
         <is>
           <t>↓</t>
-        </is>
-      </c>
-      <c r="Y2" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AA2" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AC2" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
         </is>
       </c>
       <c r="AG2" s="8" t="inlineStr">
@@ -744,9 +739,19 @@
       <c r="A3" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
       <c r="C3" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
       <c r="E3" s="1" t="n">
         <v>18</v>
       </c>
@@ -761,20 +766,20 @@
       <c r="I3" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
       <c r="K3" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
       <c r="M3" s="3" t="n">
         <v>22</v>
       </c>
       <c r="N3" s="2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>→</t>
         </is>
       </c>
       <c r="O3" s="3" t="n">
@@ -783,18 +788,23 @@
       <c r="Q3" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="S3" s="6" t="n">
+      <c r="S3" s="5" t="n">
         <v>25</v>
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="U3" s="6" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="U3" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="W3" s="6" t="n">
+      <c r="V3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="W3" s="5" t="n">
         <v>27</v>
       </c>
       <c r="X3" s="2" t="inlineStr">
@@ -802,14 +812,24 @@
           <t>→</t>
         </is>
       </c>
-      <c r="Y3" s="6" t="n">
+      <c r="Y3" s="5" t="n">
         <v>28</v>
+      </c>
+      <c r="Z3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
       </c>
       <c r="AA3" s="7" t="n">
         <v>29</v>
       </c>
       <c r="AC3" s="7" t="n">
         <v>30</v>
+      </c>
+      <c r="AD3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
       </c>
       <c r="AE3" s="7" t="n">
         <v>31</v>
@@ -831,49 +851,29 @@
           <t>↑</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="Q4" s="2" t="inlineStr">
+      <c r="S4" s="2" t="inlineStr">
         <is>
           <t>↓</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AA4" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AC4" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AE4" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
         </is>
       </c>
       <c r="AG4" s="10" t="inlineStr">
@@ -907,25 +907,20 @@
       <c r="E5" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
       <c r="G5" s="1" t="n">
         <v>35</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
       <c r="K5" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
       <c r="M5" s="3" t="n">
         <v>38</v>
       </c>
@@ -940,23 +935,13 @@
       <c r="Q5" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="S5" s="6" t="n">
+      <c r="S5" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="U5" s="6" t="n">
+      <c r="U5" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="V5" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="W5" s="6" t="n">
+      <c r="W5" s="5" t="n">
         <v>43</v>
       </c>
       <c r="X5" s="2" t="inlineStr">
@@ -964,7 +949,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="Y5" s="6" t="n">
+      <c r="Y5" s="11" t="n">
         <v>44</v>
       </c>
       <c r="AA5" s="11" t="n">
@@ -988,36 +973,41 @@
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="O6" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="Q6" s="2" t="inlineStr">
+      <c r="S6" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="S6" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
           <t>↑</t>
@@ -1025,12 +1015,12 @@
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="Y6" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="AA6" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
         </is>
       </c>
       <c r="AC6" s="2" t="inlineStr">
@@ -1058,34 +1048,29 @@
       <c r="A7" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
       <c r="C7" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
       <c r="E7" s="1" t="n">
         <v>50</v>
       </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
       <c r="G7" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
       <c r="I7" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="K7" s="14" t="n">
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="n">
         <v>53</v>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -1096,18 +1081,23 @@
       <c r="M7" s="3" t="n">
         <v>54</v>
       </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
       <c r="O7" s="3" t="n">
         <v>55</v>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="Q7" s="3" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="Q7" s="14" t="n">
         <v>56</v>
       </c>
-      <c r="S7" s="6" t="n">
+      <c r="S7" s="5" t="n">
         <v>57</v>
       </c>
       <c r="T7" s="2" t="inlineStr">
@@ -1115,13 +1105,23 @@
           <t>→</t>
         </is>
       </c>
-      <c r="U7" s="6" t="n">
+      <c r="U7" s="5" t="n">
         <v>58</v>
       </c>
-      <c r="W7" s="6" t="n">
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="W7" s="5" t="n">
         <v>59</v>
       </c>
-      <c r="Y7" s="6" t="n">
+      <c r="X7" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="Y7" s="11" t="n">
         <v>60</v>
       </c>
       <c r="Z7" s="2" t="inlineStr">
@@ -1302,15 +1302,20 @@
       <c r="S1" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="U1" s="6" t="n">
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="U1" s="5" t="n">
         <v>10</v>
       </c>
       <c r="V1" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="W1" s="6" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="W1" s="5" t="n">
         <v>11</v>
       </c>
       <c r="X1" s="2" t="inlineStr">
@@ -1318,7 +1323,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="Y1" s="7" t="n">
+      <c r="Y1" s="5" t="n">
         <v>12</v>
       </c>
       <c r="Z1" s="2" t="inlineStr">
@@ -1326,7 +1331,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AA1" s="7" t="n">
+      <c r="AA1" s="6" t="n">
         <v>13</v>
       </c>
       <c r="AB1" s="2" t="inlineStr">
@@ -1357,14 +1362,9 @@
       </c>
     </row>
     <row r="2" ht="20" customHeight="1">
-      <c r="K2" s="2" t="inlineStr">
+      <c r="U2" s="2" t="inlineStr">
         <is>
           <t>↑</t>
-        </is>
-      </c>
-      <c r="W2" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
         </is>
       </c>
       <c r="AG2" s="8" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>→</t>
         </is>
       </c>
       <c r="M3" s="3" t="n">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="N3" s="2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>→</t>
         </is>
       </c>
       <c r="O3" s="3" t="n">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>→</t>
         </is>
       </c>
       <c r="Q3" s="3" t="n">
@@ -1448,18 +1448,18 @@
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="S3" s="6" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="S3" s="5" t="n">
         <v>25</v>
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="U3" s="6" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="U3" s="5" t="n">
         <v>26</v>
       </c>
       <c r="V3" s="2" t="inlineStr">
@@ -1467,7 +1467,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="W3" s="6" t="n">
+      <c r="W3" s="5" t="n">
         <v>27</v>
       </c>
       <c r="X3" s="2" t="inlineStr">
@@ -1475,7 +1475,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="Y3" s="6" t="n">
+      <c r="Y3" s="5" t="n">
         <v>28</v>
       </c>
       <c r="Z3" s="2" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="O4" s="2" t="inlineStr">
+      <c r="U4" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>→</t>
         </is>
       </c>
       <c r="Q5" s="3" t="n">
@@ -1600,18 +1600,18 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="S5" s="6" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="S5" s="5" t="n">
         <v>41</v>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="U5" s="6" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="U5" s="5" t="n">
         <v>42</v>
       </c>
       <c r="V5" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="W5" s="6" t="n">
+      <c r="W5" s="5" t="n">
         <v>43</v>
       </c>
       <c r="X5" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="Y5" s="6" t="n">
+      <c r="Y5" s="11" t="n">
         <v>44</v>
       </c>
       <c r="Z5" s="2" t="inlineStr">
@@ -1666,7 +1666,12 @@
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="K6" s="2" t="inlineStr">
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
@@ -1723,12 +1728,12 @@
           <t>→</t>
         </is>
       </c>
-      <c r="K7" s="14" t="n">
+      <c r="K7" s="3" t="n">
         <v>53</v>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>→</t>
         </is>
       </c>
       <c r="M7" s="3" t="n">
@@ -1736,7 +1741,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>→</t>
         </is>
       </c>
       <c r="O7" s="3" t="n">
@@ -1747,31 +1752,26 @@
           <t>←</t>
         </is>
       </c>
-      <c r="Q7" s="3" t="n">
+      <c r="Q7" s="14" t="n">
         <v>56</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="S7" s="6" t="n">
+      <c r="S7" s="5" t="n">
         <v>57</v>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="U7" s="6" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="U7" s="5" t="n">
         <v>58</v>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="W7" s="6" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="W7" s="5" t="n">
         <v>59</v>
       </c>
       <c r="X7" s="2" t="inlineStr">
@@ -1779,7 +1779,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="Y7" s="6" t="n">
+      <c r="Y7" s="11" t="n">
         <v>60</v>
       </c>
       <c r="Z7" s="2" t="inlineStr">

--- a/results_Potential_NextBlock.xlsx
+++ b/results_Potential_NextBlock.xlsx
@@ -27,7 +27,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -36,7 +36,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0087CEEB"/>
+        <fgColor rgb="000000FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -46,12 +46,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="000000FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFC0CB"/>
+        <fgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -61,12 +56,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FAEBD7"/>
+        <fgColor rgb="00FFC0CB"/>
       </patternFill>
     </fill>
   </fills>
@@ -110,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
@@ -127,37 +117,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -525,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,27 +550,37 @@
       <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
       <c r="C1" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n">
         <v>4</v>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
       </c>
       <c r="K1" s="3" t="n">
         <v>5</v>
@@ -600,19 +588,9 @@
       <c r="M1" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="N1" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
       <c r="O1" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="P1" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
       <c r="Q1" s="4" t="n">
         <v>8</v>
       </c>
@@ -621,7 +599,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="S1" s="5" t="n">
+      <c r="S1" s="3" t="n">
         <v>9</v>
       </c>
       <c r="T1" s="2" t="inlineStr">
@@ -653,23 +631,18 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AA1" s="6" t="n">
+      <c r="AA1" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="AB1" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AC1" s="7" t="n">
+      <c r="AC1" s="5" t="n">
         <v>14</v>
       </c>
       <c r="AD1" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AE1" s="7" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AE1" s="5" t="n">
         <v>15</v>
       </c>
       <c r="AG1" s="2" t="inlineStr">
@@ -684,54 +657,54 @@
       </c>
     </row>
     <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="M2" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="O2" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr">
+      <c r="S2" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="Q2" s="2" t="inlineStr">
+      <c r="W2" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="S2" s="2" t="inlineStr">
+      <c r="AA2" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="AC2" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AG2" s="8" t="inlineStr">
+      <c r="AE2" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="AG2" s="6" t="inlineStr">
         <is>
           <t>car 0</t>
         </is>
       </c>
       <c r="AH2" s="2" t="inlineStr">
         <is>
-          <t>0 → 9</t>
+          <t>3 → 5</t>
         </is>
       </c>
     </row>
@@ -741,7 +714,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>←</t>
         </is>
       </c>
       <c r="C3" s="1" t="n">
@@ -749,13 +722,18 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="n">
         <v>19</v>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -763,7 +741,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="3" t="n">
         <v>20</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
@@ -774,21 +752,31 @@
       <c r="K3" s="3" t="n">
         <v>21</v>
       </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
       <c r="M3" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="N3" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
       <c r="O3" s="3" t="n">
         <v>23</v>
       </c>
+      <c r="P3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
       <c r="Q3" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="S3" s="5" t="n">
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="S3" s="3" t="n">
         <v>25</v>
       </c>
       <c r="T3" s="2" t="inlineStr">
@@ -799,31 +787,21 @@
       <c r="U3" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="V3" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
       <c r="W3" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="X3" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
       <c r="Y3" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="Z3" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AA3" s="7" t="n">
+      <c r="AA3" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="AC3" s="7" t="n">
+      <c r="AB3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AC3" s="5" t="n">
         <v>30</v>
       </c>
       <c r="AD3" s="2" t="inlineStr">
@@ -831,86 +809,71 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AE3" s="7" t="n">
+      <c r="AE3" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="AG3" s="9" t="inlineStr">
+      <c r="AG3" s="7" t="inlineStr">
         <is>
           <t>car 1</t>
         </is>
       </c>
       <c r="AH3" s="2" t="inlineStr">
         <is>
-          <t>0 → 7</t>
+          <t>0 → 9</t>
         </is>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="O4" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="Y4" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AG4" s="10" t="inlineStr">
+      <c r="AG4" s="8" t="inlineStr">
         <is>
           <t>car 2</t>
         </is>
       </c>
       <c r="AH4" s="2" t="inlineStr">
         <is>
-          <t>4 → 5</t>
+          <t>0 → 7</t>
         </is>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="9" t="n">
         <v>34</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="3" t="n">
         <v>36</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -921,26 +884,36 @@
       <c r="K5" s="3" t="n">
         <v>37</v>
       </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
       <c r="M5" s="3" t="n">
         <v>38</v>
       </c>
       <c r="O5" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
       <c r="Q5" s="3" t="n">
         <v>40</v>
       </c>
       <c r="S5" s="5" t="n">
         <v>41</v>
       </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
       <c r="U5" s="5" t="n">
         <v>42</v>
       </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
       <c r="W5" s="5" t="n">
         <v>43</v>
       </c>
@@ -949,109 +922,119 @@
           <t>→</t>
         </is>
       </c>
-      <c r="Y5" s="11" t="n">
+      <c r="Y5" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="AA5" s="11" t="n">
+      <c r="Z5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AA5" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="AC5" s="11" t="n">
+      <c r="AB5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AC5" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="AE5" s="11" t="n">
+      <c r="AE5" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="AG5" s="12" t="inlineStr">
+      <c r="AG5" s="10" t="inlineStr">
         <is>
           <t>car 3</t>
         </is>
       </c>
       <c r="AH5" s="2" t="inlineStr">
         <is>
-          <t>4 → 6</t>
+          <t>4 → 5</t>
         </is>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="S6" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="AE6" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="S6" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="U6" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="W6" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AA6" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AC6" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AE6" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AG6" s="13" t="inlineStr">
-        <is>
-          <t>car 4</t>
+      <c r="AG6" s="11" t="inlineStr">
+        <is>
+          <t>dummy car</t>
         </is>
       </c>
       <c r="AH6" s="2" t="inlineStr">
         <is>
-          <t>0 → 5</t>
+          <t>4 → 6</t>
         </is>
       </c>
     </row>
     <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="9" t="n">
         <v>48</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="n">
         <v>49</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="n">
         <v>50</v>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -1059,10 +1042,15 @@
           <t>←</t>
         </is>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="3" t="n">
         <v>51</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="n">
         <v>52</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1094,25 +1082,15 @@
           <t>→</t>
         </is>
       </c>
-      <c r="Q7" s="14" t="n">
+      <c r="Q7" s="12" t="n">
         <v>56</v>
       </c>
       <c r="S7" s="5" t="n">
         <v>57</v>
       </c>
-      <c r="T7" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
       <c r="U7" s="5" t="n">
         <v>58</v>
       </c>
-      <c r="V7" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
       <c r="W7" s="5" t="n">
         <v>59</v>
       </c>
@@ -1121,7 +1099,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="Y7" s="11" t="n">
+      <c r="Y7" s="5" t="n">
         <v>60</v>
       </c>
       <c r="Z7" s="2" t="inlineStr">
@@ -1129,7 +1107,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AA7" s="11" t="n">
+      <c r="AA7" s="5" t="n">
         <v>61</v>
       </c>
       <c r="AB7" s="2" t="inlineStr">
@@ -1137,7 +1115,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AC7" s="11" t="n">
+      <c r="AC7" s="5" t="n">
         <v>62</v>
       </c>
       <c r="AD7" s="2" t="inlineStr">
@@ -1145,32 +1123,11 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AE7" s="11" t="n">
+      <c r="AE7" s="5" t="n">
         <v>63</v>
       </c>
-      <c r="AG7" s="15" t="inlineStr">
-        <is>
-          <t>car 5</t>
-        </is>
-      </c>
-      <c r="AH7" s="2" t="inlineStr">
-        <is>
-          <t>3 → 8</t>
-        </is>
-      </c>
     </row>
-    <row r="8" ht="20" customHeight="1">
-      <c r="AG8" s="16" t="inlineStr">
-        <is>
-          <t>dummy car</t>
-        </is>
-      </c>
-      <c r="AH8" s="2" t="inlineStr">
-        <is>
-          <t>0 → 6</t>
-        </is>
-      </c>
-    </row>
+    <row r="8" ht="20" customHeight="1"/>
     <row r="9" ht="50" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1183,7 +1140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1243,7 +1200,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="3" t="n">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="inlineStr">
@@ -1251,7 +1208,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="3" t="n">
         <v>3</v>
       </c>
       <c r="H1" s="2" t="inlineStr">
@@ -1259,7 +1216,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="3" t="n">
         <v>4</v>
       </c>
       <c r="J1" s="2" t="inlineStr">
@@ -1286,11 +1243,6 @@
       <c r="O1" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="P1" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
       <c r="Q1" s="4" t="n">
         <v>8</v>
       </c>
@@ -1299,7 +1251,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="S1" s="5" t="n">
+      <c r="S1" s="3" t="n">
         <v>9</v>
       </c>
       <c r="T1" s="2" t="inlineStr">
@@ -1331,7 +1283,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AA1" s="6" t="n">
+      <c r="AA1" s="5" t="n">
         <v>13</v>
       </c>
       <c r="AB1" s="2" t="inlineStr">
@@ -1339,7 +1291,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AC1" s="7" t="n">
+      <c r="AC1" s="5" t="n">
         <v>14</v>
       </c>
       <c r="AD1" s="2" t="inlineStr">
@@ -1347,7 +1299,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AE1" s="7" t="n">
+      <c r="AE1" s="5" t="n">
         <v>15</v>
       </c>
       <c r="AG1" s="2" t="inlineStr">
@@ -1362,19 +1314,24 @@
       </c>
     </row>
     <row r="2" ht="20" customHeight="1">
-      <c r="U2" s="2" t="inlineStr">
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
       </c>
-      <c r="AG2" s="8" t="inlineStr">
+      <c r="AG2" s="6" t="inlineStr">
         <is>
           <t>car 0</t>
         </is>
       </c>
       <c r="AH2" s="2" t="inlineStr">
         <is>
-          <t>0 → 9</t>
+          <t>3 → 5</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1352,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="3" t="n">
         <v>18</v>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -1403,7 +1360,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="3" t="n">
         <v>19</v>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -1411,7 +1368,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="3" t="n">
         <v>20</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
@@ -1451,12 +1408,12 @@
           <t>→</t>
         </is>
       </c>
-      <c r="S3" s="5" t="n">
+      <c r="S3" s="3" t="n">
         <v>25</v>
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>←</t>
         </is>
       </c>
       <c r="U3" s="5" t="n">
@@ -1483,7 +1440,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AA3" s="7" t="n">
+      <c r="AA3" s="5" t="n">
         <v>29</v>
       </c>
       <c r="AB3" s="2" t="inlineStr">
@@ -1491,7 +1448,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AC3" s="7" t="n">
+      <c r="AC3" s="5" t="n">
         <v>30</v>
       </c>
       <c r="AD3" s="2" t="inlineStr">
@@ -1499,39 +1456,39 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AE3" s="7" t="n">
+      <c r="AE3" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="AG3" s="9" t="inlineStr">
+      <c r="AG3" s="7" t="inlineStr">
         <is>
           <t>car 1</t>
         </is>
       </c>
       <c r="AH3" s="2" t="inlineStr">
         <is>
-          <t>0 → 7</t>
+          <t>0 → 9</t>
         </is>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="U4" s="2" t="inlineStr">
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
       </c>
-      <c r="AG4" s="10" t="inlineStr">
+      <c r="AG4" s="8" t="inlineStr">
         <is>
           <t>car 2</t>
         </is>
       </c>
       <c r="AH4" s="2" t="inlineStr">
         <is>
-          <t>4 → 5</t>
+          <t>0 → 7</t>
         </is>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="9" t="n">
         <v>32</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -1539,7 +1496,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="9" t="n">
         <v>33</v>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1547,7 +1504,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="9" t="n">
         <v>34</v>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -1555,7 +1512,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="3" t="n">
         <v>35</v>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -1563,7 +1520,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="3" t="n">
         <v>36</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1600,7 +1557,7 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>←</t>
         </is>
       </c>
       <c r="S5" s="5" t="n">
@@ -1608,7 +1565,7 @@
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>←</t>
         </is>
       </c>
       <c r="U5" s="5" t="n">
@@ -1627,7 +1584,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="Y5" s="11" t="n">
+      <c r="Y5" s="5" t="n">
         <v>44</v>
       </c>
       <c r="Z5" s="2" t="inlineStr">
@@ -1635,7 +1592,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AA5" s="11" t="n">
+      <c r="AA5" s="5" t="n">
         <v>45</v>
       </c>
       <c r="AB5" s="2" t="inlineStr">
@@ -1643,7 +1600,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AC5" s="11" t="n">
+      <c r="AC5" s="5" t="n">
         <v>46</v>
       </c>
       <c r="AD5" s="2" t="inlineStr">
@@ -1651,17 +1608,17 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AE5" s="11" t="n">
+      <c r="AE5" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="AG5" s="12" t="inlineStr">
+      <c r="AG5" s="10" t="inlineStr">
         <is>
           <t>car 3</t>
         </is>
       </c>
       <c r="AH5" s="2" t="inlineStr">
         <is>
-          <t>4 → 6</t>
+          <t>4 → 5</t>
         </is>
       </c>
     </row>
@@ -1671,24 +1628,24 @@
           <t>↑</t>
         </is>
       </c>
-      <c r="W6" s="2" t="inlineStr">
+      <c r="AE6" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
       </c>
-      <c r="AG6" s="13" t="inlineStr">
-        <is>
-          <t>car 4</t>
+      <c r="AG6" s="11" t="inlineStr">
+        <is>
+          <t>dummy car</t>
         </is>
       </c>
       <c r="AH6" s="2" t="inlineStr">
         <is>
-          <t>0 → 5</t>
+          <t>4 → 6</t>
         </is>
       </c>
     </row>
     <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="9" t="n">
         <v>48</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -1696,7 +1653,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="9" t="n">
         <v>49</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -1704,7 +1661,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="9" t="n">
         <v>50</v>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -1712,7 +1669,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="3" t="n">
         <v>51</v>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1720,7 +1677,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="3" t="n">
         <v>52</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1752,7 +1709,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="Q7" s="14" t="n">
+      <c r="Q7" s="12" t="n">
         <v>56</v>
       </c>
       <c r="S7" s="5" t="n">
@@ -1776,59 +1733,38 @@
       </c>
       <c r="X7" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="Y7" s="11" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="Y7" s="5" t="n">
         <v>60</v>
       </c>
       <c r="Z7" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="AA7" s="11" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AA7" s="5" t="n">
         <v>61</v>
       </c>
       <c r="AB7" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="AC7" s="11" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AC7" s="5" t="n">
         <v>62</v>
       </c>
       <c r="AD7" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="AE7" s="11" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AE7" s="5" t="n">
         <v>63</v>
       </c>
-      <c r="AG7" s="15" t="inlineStr">
-        <is>
-          <t>car 5</t>
-        </is>
-      </c>
-      <c r="AH7" s="2" t="inlineStr">
-        <is>
-          <t>3 → 8</t>
-        </is>
-      </c>
     </row>
-    <row r="8" ht="20" customHeight="1">
-      <c r="AG8" s="16" t="inlineStr">
-        <is>
-          <t>dummy car</t>
-        </is>
-      </c>
-      <c r="AH8" s="2" t="inlineStr">
-        <is>
-          <t>0 → 6</t>
-        </is>
-      </c>
-    </row>
+    <row r="8" ht="20" customHeight="1"/>
     <row r="9" ht="50" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results_Potential_NextBlock.xlsx
+++ b/results_Potential_NextBlock.xlsx
@@ -27,7 +27,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -36,12 +36,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="0087CEEB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="000000FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
+        <fgColor rgb="00FFC0CB"/>
       </patternFill>
     </fill>
     <fill>
@@ -56,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC0CB"/>
+        <fgColor rgb="00FAEBD7"/>
       </patternFill>
     </fill>
   </fills>
@@ -100,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
@@ -117,25 +127,37 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -503,7 +525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH7"/>
+  <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,10 +585,15 @@
           <t>←</t>
         </is>
       </c>
-      <c r="E1" s="3" t="n">
+      <c r="E1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="n">
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H1" s="2" t="inlineStr">
@@ -574,20 +601,30 @@
           <t>←</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n">
+      <c r="I1" s="1" t="n">
         <v>4</v>
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>←</t>
         </is>
       </c>
       <c r="K1" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
       <c r="M1" s="3" t="n">
         <v>6</v>
       </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
       <c r="O1" s="3" t="n">
         <v>7</v>
       </c>
@@ -599,7 +636,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="S1" s="3" t="n">
+      <c r="S1" s="5" t="n">
         <v>9</v>
       </c>
       <c r="T1" s="2" t="inlineStr">
@@ -623,7 +660,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="Y1" s="5" t="n">
+      <c r="Y1" s="6" t="n">
         <v>12</v>
       </c>
       <c r="Z1" s="2" t="inlineStr">
@@ -631,18 +668,23 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AA1" s="5" t="n">
+      <c r="AA1" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="AC1" s="5" t="n">
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AC1" s="7" t="n">
         <v>14</v>
       </c>
       <c r="AD1" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="AE1" s="5" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AE1" s="7" t="n">
         <v>15</v>
       </c>
       <c r="AG1" s="2" t="inlineStr">
@@ -653,58 +695,43 @@
       <c r="AH1" s="2" t="inlineStr">
         <is>
           <t>LP → DP</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>car amount (RT)</t>
         </is>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1">
-      <c r="E2" s="2" t="inlineStr">
+      <c r="M2" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="O2" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
       <c r="S2" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="W2" s="2" t="inlineStr">
+      <c r="AC2" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="AA2" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AE2" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AG2" s="6" t="inlineStr">
+      <c r="AG2" s="8" t="inlineStr">
         <is>
           <t>car 0</t>
         </is>
       </c>
       <c r="AH2" s="2" t="inlineStr">
         <is>
-          <t>3 → 5</t>
+          <t>0 → 9</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>41 (RT)</t>
         </is>
       </c>
     </row>
@@ -725,7 +752,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="1" t="n">
         <v>18</v>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -733,7 +760,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="1" t="n">
         <v>19</v>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -741,7 +768,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="1" t="n">
         <v>20</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
@@ -754,12 +781,17 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>←</t>
         </is>
       </c>
       <c r="M3" s="3" t="n">
         <v>22</v>
       </c>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
       <c r="O3" s="3" t="n">
         <v>23</v>
       </c>
@@ -776,7 +808,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="S3" s="3" t="n">
+      <c r="S3" s="5" t="n">
         <v>25</v>
       </c>
       <c r="T3" s="2" t="inlineStr">
@@ -787,21 +819,31 @@
       <c r="U3" s="5" t="n">
         <v>26</v>
       </c>
+      <c r="V3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
       <c r="W3" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="Y3" s="5" t="n">
+      <c r="X3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="Y3" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="AA3" s="5" t="n">
+      <c r="Z3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AA3" s="7" t="n">
         <v>29</v>
       </c>
-      <c r="AB3" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AC3" s="5" t="n">
+      <c r="AC3" s="7" t="n">
         <v>30</v>
       </c>
       <c r="AD3" s="2" t="inlineStr">
@@ -809,71 +851,86 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AE3" s="5" t="n">
+      <c r="AE3" s="7" t="n">
         <v>31</v>
       </c>
-      <c r="AG3" s="7" t="inlineStr">
+      <c r="AG3" s="10" t="inlineStr">
         <is>
           <t>car 1</t>
         </is>
       </c>
       <c r="AH3" s="2" t="inlineStr">
         <is>
-          <t>0 → 9</t>
+          <t>0 → 7</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>61 (RT)</t>
         </is>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
+      <c r="W4" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="Q4" s="2" t="inlineStr">
+      <c r="AC4" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="Y4" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AG4" s="8" t="inlineStr">
+      <c r="AG4" s="11" t="inlineStr">
         <is>
           <t>car 2</t>
         </is>
       </c>
       <c r="AH4" s="2" t="inlineStr">
         <is>
-          <t>0 → 7</t>
+          <t>4 → 5</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>114 (RT)</t>
         </is>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1">
-      <c r="A5" s="9" t="n">
+      <c r="A5" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="E5" s="9" t="n">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
         <v>36</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -892,12 +949,27 @@
       <c r="M5" s="3" t="n">
         <v>38</v>
       </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
       <c r="O5" s="3" t="n">
         <v>39</v>
       </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
       <c r="Q5" s="3" t="n">
         <v>40</v>
       </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
       <c r="S5" s="5" t="n">
         <v>41</v>
       </c>
@@ -911,7 +983,7 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>←</t>
         </is>
       </c>
       <c r="W5" s="5" t="n">
@@ -922,103 +994,78 @@
           <t>→</t>
         </is>
       </c>
-      <c r="Y5" s="5" t="n">
+      <c r="Y5" s="9" t="n">
         <v>44</v>
       </c>
-      <c r="Z5" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AA5" s="5" t="n">
+      <c r="AA5" s="9" t="n">
         <v>45</v>
       </c>
       <c r="AB5" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AC5" s="5" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AC5" s="7" t="n">
         <v>46</v>
       </c>
-      <c r="AE5" s="5" t="n">
+      <c r="AD5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AE5" s="7" t="n">
         <v>47</v>
       </c>
-      <c r="AG5" s="10" t="inlineStr">
+      <c r="AG5" s="12" t="inlineStr">
         <is>
           <t>car 3</t>
         </is>
       </c>
       <c r="AH5" s="2" t="inlineStr">
         <is>
-          <t>4 → 5</t>
+          <t>4 → 6</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>117 (RT)</t>
         </is>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="S6" s="2" t="inlineStr">
+      <c r="U6" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="U6" s="2" t="inlineStr">
+      <c r="AC6" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="W6" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AE6" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AG6" s="11" t="inlineStr">
-        <is>
-          <t>dummy car</t>
+      <c r="AG6" s="13" t="inlineStr">
+        <is>
+          <t>car 4</t>
         </is>
       </c>
       <c r="AH6" s="2" t="inlineStr">
         <is>
-          <t>4 → 6</t>
+          <t>0 → 5</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>6 (RT)</t>
         </is>
       </c>
     </row>
     <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="9" t="n">
+      <c r="A7" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -1026,7 +1073,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="1" t="n">
         <v>49</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -1034,7 +1081,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="1" t="n">
         <v>50</v>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -1042,7 +1089,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="1" t="n">
         <v>51</v>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1050,7 +1097,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="1" t="n">
         <v>52</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1063,7 +1110,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>→</t>
         </is>
       </c>
       <c r="M7" s="3" t="n">
@@ -1071,7 +1118,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>→</t>
         </is>
       </c>
       <c r="O7" s="3" t="n">
@@ -1082,15 +1129,25 @@
           <t>→</t>
         </is>
       </c>
-      <c r="Q7" s="12" t="n">
+      <c r="Q7" s="14" t="n">
         <v>56</v>
       </c>
       <c r="S7" s="5" t="n">
         <v>57</v>
       </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
       <c r="U7" s="5" t="n">
         <v>58</v>
       </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
       <c r="W7" s="5" t="n">
         <v>59</v>
       </c>
@@ -1099,7 +1156,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="Y7" s="5" t="n">
+      <c r="Y7" s="9" t="n">
         <v>60</v>
       </c>
       <c r="Z7" s="2" t="inlineStr">
@@ -1107,15 +1164,10 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AA7" s="5" t="n">
+      <c r="AA7" s="9" t="n">
         <v>61</v>
       </c>
-      <c r="AB7" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AC7" s="5" t="n">
+      <c r="AC7" s="7" t="n">
         <v>62</v>
       </c>
       <c r="AD7" s="2" t="inlineStr">
@@ -1123,11 +1175,37 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AE7" s="5" t="n">
+      <c r="AE7" s="7" t="n">
         <v>63</v>
       </c>
+      <c r="AG7" s="15" t="inlineStr">
+        <is>
+          <t>car 5</t>
+        </is>
+      </c>
+      <c r="AH7" s="2" t="inlineStr">
+        <is>
+          <t>3 → 8</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>161 (RT)</t>
+        </is>
+      </c>
     </row>
-    <row r="8" ht="20" customHeight="1"/>
+    <row r="8" ht="20" customHeight="1">
+      <c r="AG8" s="16" t="inlineStr">
+        <is>
+          <t>dummy car</t>
+        </is>
+      </c>
+      <c r="AH8" s="2" t="inlineStr">
+        <is>
+          <t>0 → 6</t>
+        </is>
+      </c>
+    </row>
     <row r="9" ht="50" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1140,7 +1218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH7"/>
+  <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1200,7 +1278,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="E1" s="3" t="n">
+      <c r="E1" s="1" t="n">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="inlineStr">
@@ -1208,7 +1286,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n">
+      <c r="G1" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H1" s="2" t="inlineStr">
@@ -1216,7 +1294,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n">
+      <c r="I1" s="1" t="n">
         <v>4</v>
       </c>
       <c r="J1" s="2" t="inlineStr">
@@ -1237,7 +1315,7 @@
       </c>
       <c r="N1" s="2" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>←</t>
         </is>
       </c>
       <c r="O1" s="3" t="n">
@@ -1251,7 +1329,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="S1" s="3" t="n">
+      <c r="S1" s="5" t="n">
         <v>9</v>
       </c>
       <c r="T1" s="2" t="inlineStr">
@@ -1275,7 +1353,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="Y1" s="5" t="n">
+      <c r="Y1" s="6" t="n">
         <v>12</v>
       </c>
       <c r="Z1" s="2" t="inlineStr">
@@ -1283,7 +1361,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AA1" s="5" t="n">
+      <c r="AA1" s="7" t="n">
         <v>13</v>
       </c>
       <c r="AB1" s="2" t="inlineStr">
@@ -1291,7 +1369,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AC1" s="5" t="n">
+      <c r="AC1" s="7" t="n">
         <v>14</v>
       </c>
       <c r="AD1" s="2" t="inlineStr">
@@ -1299,7 +1377,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AE1" s="5" t="n">
+      <c r="AE1" s="7" t="n">
         <v>15</v>
       </c>
       <c r="AG1" s="2" t="inlineStr">
@@ -1310,11 +1388,16 @@
       <c r="AH1" s="2" t="inlineStr">
         <is>
           <t>LP → DP</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>car amount (RT)</t>
         </is>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1">
-      <c r="O2" s="2" t="inlineStr">
+      <c r="M2" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
@@ -1324,14 +1407,24 @@
           <t>↑</t>
         </is>
       </c>
-      <c r="AG2" s="6" t="inlineStr">
+      <c r="AC2" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="AG2" s="8" t="inlineStr">
         <is>
           <t>car 0</t>
         </is>
       </c>
       <c r="AH2" s="2" t="inlineStr">
         <is>
-          <t>3 → 5</t>
+          <t>0 → 9</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>41 (RT)</t>
         </is>
       </c>
     </row>
@@ -1352,7 +1445,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="1" t="n">
         <v>18</v>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -1360,7 +1453,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="1" t="n">
         <v>19</v>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -1368,7 +1461,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="1" t="n">
         <v>20</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
@@ -1408,7 +1501,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="S3" s="3" t="n">
+      <c r="S3" s="5" t="n">
         <v>25</v>
       </c>
       <c r="T3" s="2" t="inlineStr">
@@ -1427,28 +1520,23 @@
       <c r="W3" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="X3" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="Y3" s="5" t="n">
+      <c r="Y3" s="9" t="n">
         <v>28</v>
       </c>
       <c r="Z3" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="AA3" s="5" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AA3" s="7" t="n">
         <v>29</v>
       </c>
       <c r="AB3" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="AC3" s="5" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AC3" s="7" t="n">
         <v>30</v>
       </c>
       <c r="AD3" s="2" t="inlineStr">
@@ -1456,39 +1544,54 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AE3" s="5" t="n">
+      <c r="AE3" s="7" t="n">
         <v>31</v>
       </c>
-      <c r="AG3" s="7" t="inlineStr">
+      <c r="AG3" s="10" t="inlineStr">
         <is>
           <t>car 1</t>
         </is>
       </c>
       <c r="AH3" s="2" t="inlineStr">
         <is>
-          <t>0 → 9</t>
+          <t>0 → 7</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>61 (RT)</t>
         </is>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="Q4" s="2" t="inlineStr">
+      <c r="W4" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
       </c>
-      <c r="AG4" s="8" t="inlineStr">
+      <c r="AC4" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="AG4" s="11" t="inlineStr">
         <is>
           <t>car 2</t>
         </is>
       </c>
       <c r="AH4" s="2" t="inlineStr">
         <is>
-          <t>0 → 7</t>
+          <t>4 → 5</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>114 (RT)</t>
         </is>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1">
-      <c r="A5" s="9" t="n">
+      <c r="A5" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -1496,7 +1599,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="1" t="n">
         <v>33</v>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1504,7 +1607,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="E5" s="9" t="n">
+      <c r="E5" s="1" t="n">
         <v>34</v>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -1512,7 +1615,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="1" t="n">
         <v>35</v>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -1520,7 +1623,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="1" t="n">
         <v>36</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1557,7 +1660,7 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>→</t>
         </is>
       </c>
       <c r="S5" s="5" t="n">
@@ -1565,7 +1668,7 @@
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>→</t>
         </is>
       </c>
       <c r="U5" s="5" t="n">
@@ -1573,7 +1676,7 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>→</t>
         </is>
       </c>
       <c r="W5" s="5" t="n">
@@ -1584,23 +1687,18 @@
           <t>←</t>
         </is>
       </c>
-      <c r="Y5" s="5" t="n">
+      <c r="Y5" s="9" t="n">
         <v>44</v>
       </c>
-      <c r="Z5" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="AA5" s="5" t="n">
+      <c r="AA5" s="9" t="n">
         <v>45</v>
       </c>
       <c r="AB5" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="AC5" s="5" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AC5" s="7" t="n">
         <v>46</v>
       </c>
       <c r="AD5" s="2" t="inlineStr">
@@ -1608,44 +1706,59 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AE5" s="5" t="n">
+      <c r="AE5" s="7" t="n">
         <v>47</v>
       </c>
-      <c r="AG5" s="10" t="inlineStr">
+      <c r="AG5" s="12" t="inlineStr">
         <is>
           <t>car 3</t>
         </is>
       </c>
       <c r="AH5" s="2" t="inlineStr">
         <is>
-          <t>4 → 5</t>
+          <t>4 → 6</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>117 (RT)</t>
         </is>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="O6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
       </c>
-      <c r="AE6" s="2" t="inlineStr">
+      <c r="U6" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
       </c>
-      <c r="AG6" s="11" t="inlineStr">
-        <is>
-          <t>dummy car</t>
+      <c r="AC6" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="AG6" s="13" t="inlineStr">
+        <is>
+          <t>car 4</t>
         </is>
       </c>
       <c r="AH6" s="2" t="inlineStr">
         <is>
-          <t>4 → 6</t>
+          <t>0 → 5</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>6 (RT)</t>
         </is>
       </c>
     </row>
     <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="9" t="n">
+      <c r="A7" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -1653,7 +1766,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="1" t="n">
         <v>49</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -1661,7 +1774,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="1" t="n">
         <v>50</v>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -1669,7 +1782,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="1" t="n">
         <v>51</v>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1677,7 +1790,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="1" t="n">
         <v>52</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1690,7 +1803,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>←</t>
         </is>
       </c>
       <c r="M7" s="3" t="n">
@@ -1698,7 +1811,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>←</t>
         </is>
       </c>
       <c r="O7" s="3" t="n">
@@ -1709,7 +1822,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="Q7" s="12" t="n">
+      <c r="Q7" s="14" t="n">
         <v>56</v>
       </c>
       <c r="S7" s="5" t="n">
@@ -1725,18 +1838,13 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>←</t>
         </is>
       </c>
       <c r="W7" s="5" t="n">
         <v>59</v>
       </c>
-      <c r="X7" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="Y7" s="5" t="n">
+      <c r="Y7" s="9" t="n">
         <v>60</v>
       </c>
       <c r="Z7" s="2" t="inlineStr">
@@ -1744,7 +1852,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AA7" s="5" t="n">
+      <c r="AA7" s="9" t="n">
         <v>61</v>
       </c>
       <c r="AB7" s="2" t="inlineStr">
@@ -1752,19 +1860,45 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AC7" s="5" t="n">
+      <c r="AC7" s="7" t="n">
         <v>62</v>
       </c>
       <c r="AD7" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AE7" s="5" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AE7" s="7" t="n">
         <v>63</v>
       </c>
+      <c r="AG7" s="15" t="inlineStr">
+        <is>
+          <t>car 5</t>
+        </is>
+      </c>
+      <c r="AH7" s="2" t="inlineStr">
+        <is>
+          <t>3 → 8</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>161 (RT)</t>
+        </is>
+      </c>
     </row>
-    <row r="8" ht="20" customHeight="1"/>
+    <row r="8" ht="20" customHeight="1">
+      <c r="AG8" s="16" t="inlineStr">
+        <is>
+          <t>dummy car</t>
+        </is>
+      </c>
+      <c r="AH8" s="2" t="inlineStr">
+        <is>
+          <t>0 → 6</t>
+        </is>
+      </c>
+    </row>
     <row r="9" ht="50" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results_Potential_NextBlock.xlsx
+++ b/results_Potential_NextBlock.xlsx
@@ -27,7 +27,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -36,7 +36,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0087CEEB"/>
+        <fgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC0CB"/>
       </patternFill>
     </fill>
     <fill>
@@ -46,27 +51,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="000000FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC0CB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FAEBD7"/>
+        <fgColor rgb="0087CEEB"/>
       </patternFill>
     </fill>
   </fills>
@@ -110,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
@@ -121,10 +116,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -133,10 +128,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -148,16 +143,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -525,7 +514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AI7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,7 +574,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="3" t="n">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="inlineStr">
@@ -593,31 +582,31 @@
           <t>←</t>
         </is>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="3" t="n">
         <v>3</v>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n">
         <v>4</v>
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="K1" s="3" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="K1" s="4" t="n">
         <v>5</v>
       </c>
       <c r="L1" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="M1" s="3" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M1" s="4" t="n">
         <v>6</v>
       </c>
       <c r="N1" s="2" t="inlineStr">
@@ -625,10 +614,10 @@
           <t>→</t>
         </is>
       </c>
-      <c r="O1" s="3" t="n">
+      <c r="O1" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="Q1" s="4" t="n">
+      <c r="Q1" s="5" t="n">
         <v>8</v>
       </c>
       <c r="R1" s="2" t="inlineStr">
@@ -636,7 +625,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="S1" s="5" t="n">
+      <c r="S1" s="6" t="n">
         <v>9</v>
       </c>
       <c r="T1" s="2" t="inlineStr">
@@ -644,7 +633,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="U1" s="5" t="n">
+      <c r="U1" s="7" t="n">
         <v>10</v>
       </c>
       <c r="V1" s="2" t="inlineStr">
@@ -652,7 +641,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="W1" s="5" t="n">
+      <c r="W1" s="7" t="n">
         <v>11</v>
       </c>
       <c r="X1" s="2" t="inlineStr">
@@ -660,7 +649,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="Y1" s="6" t="n">
+      <c r="Y1" s="7" t="n">
         <v>12</v>
       </c>
       <c r="Z1" s="2" t="inlineStr">
@@ -668,7 +657,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AA1" s="7" t="n">
+      <c r="AA1" s="4" t="n">
         <v>13</v>
       </c>
       <c r="AB1" s="2" t="inlineStr">
@@ -676,7 +665,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AC1" s="7" t="n">
+      <c r="AC1" s="4" t="n">
         <v>14</v>
       </c>
       <c r="AD1" s="2" t="inlineStr">
@@ -684,7 +673,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AE1" s="7" t="n">
+      <c r="AE1" s="4" t="n">
         <v>15</v>
       </c>
       <c r="AG1" s="2" t="inlineStr">
@@ -704,7 +693,7 @@
       </c>
     </row>
     <row r="2" ht="20" customHeight="1">
-      <c r="M2" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
@@ -714,11 +703,6 @@
           <t>↓</t>
         </is>
       </c>
-      <c r="AC2" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
       <c r="AG2" s="8" t="inlineStr">
         <is>
           <t>car 0</t>
@@ -726,7 +710,7 @@
       </c>
       <c r="AH2" s="2" t="inlineStr">
         <is>
-          <t>0 → 9</t>
+          <t>0 → 5</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -752,7 +736,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="3" t="n">
         <v>18</v>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -760,7 +744,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="3" t="n">
         <v>19</v>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -768,7 +752,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="3" t="n">
         <v>20</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
@@ -784,7 +768,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="M3" s="3" t="n">
+      <c r="M3" s="6" t="n">
         <v>22</v>
       </c>
       <c r="N3" s="2" t="inlineStr">
@@ -792,7 +776,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="O3" s="3" t="n">
+      <c r="O3" s="6" t="n">
         <v>23</v>
       </c>
       <c r="P3" s="2" t="inlineStr">
@@ -800,7 +784,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="Q3" s="3" t="n">
+      <c r="Q3" s="6" t="n">
         <v>24</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
@@ -808,7 +792,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="S3" s="5" t="n">
+      <c r="S3" s="6" t="n">
         <v>25</v>
       </c>
       <c r="T3" s="2" t="inlineStr">
@@ -816,7 +800,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="U3" s="5" t="n">
+      <c r="U3" s="7" t="n">
         <v>26</v>
       </c>
       <c r="V3" s="2" t="inlineStr">
@@ -824,7 +808,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="W3" s="5" t="n">
+      <c r="W3" s="7" t="n">
         <v>27</v>
       </c>
       <c r="X3" s="2" t="inlineStr">
@@ -832,7 +816,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="Y3" s="9" t="n">
+      <c r="Y3" s="7" t="n">
         <v>28</v>
       </c>
       <c r="Z3" s="2" t="inlineStr">
@@ -840,10 +824,15 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AA3" s="7" t="n">
+      <c r="AA3" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="AC3" s="7" t="n">
+      <c r="AB3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AC3" s="4" t="n">
         <v>30</v>
       </c>
       <c r="AD3" s="2" t="inlineStr">
@@ -851,49 +840,44 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AE3" s="7" t="n">
+      <c r="AE3" s="4" t="n">
         <v>31</v>
       </c>
-      <c r="AG3" s="10" t="inlineStr">
+      <c r="AG3" s="9" t="inlineStr">
         <is>
           <t>car 1</t>
         </is>
       </c>
       <c r="AH3" s="2" t="inlineStr">
         <is>
-          <t>0 → 7</t>
+          <t>4 → 5</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>61 (RT)</t>
+          <t>78 (RT)</t>
         </is>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="W4" s="2" t="inlineStr">
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="AC4" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AG4" s="11" t="inlineStr">
+      <c r="AG4" s="10" t="inlineStr">
         <is>
           <t>car 2</t>
         </is>
       </c>
       <c r="AH4" s="2" t="inlineStr">
         <is>
-          <t>4 → 5</t>
+          <t>2 → 9</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>114 (RT)</t>
+          <t>131 (RT)</t>
         </is>
       </c>
     </row>
@@ -914,7 +898,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="3" t="n">
         <v>34</v>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -922,7 +906,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="3" t="n">
         <v>35</v>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -930,7 +914,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="3" t="n">
         <v>36</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -946,7 +930,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="M5" s="3" t="n">
+      <c r="M5" s="6" t="n">
         <v>38</v>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -954,7 +938,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="O5" s="3" t="n">
+      <c r="O5" s="6" t="n">
         <v>39</v>
       </c>
       <c r="P5" s="2" t="inlineStr">
@@ -962,31 +946,31 @@
           <t>←</t>
         </is>
       </c>
-      <c r="Q5" s="3" t="n">
+      <c r="Q5" s="6" t="n">
         <v>40</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="S5" s="5" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="S5" s="7" t="n">
         <v>41</v>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="U5" s="5" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="U5" s="7" t="n">
         <v>42</v>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="W5" s="5" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="W5" s="7" t="n">
         <v>43</v>
       </c>
       <c r="X5" s="2" t="inlineStr">
@@ -994,18 +978,23 @@
           <t>→</t>
         </is>
       </c>
-      <c r="Y5" s="9" t="n">
+      <c r="Y5" s="7" t="n">
         <v>44</v>
       </c>
-      <c r="AA5" s="9" t="n">
+      <c r="Z5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AA5" s="4" t="n">
         <v>45</v>
       </c>
       <c r="AB5" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="AC5" s="7" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AC5" s="4" t="n">
         <v>46</v>
       </c>
       <c r="AD5" s="2" t="inlineStr">
@@ -1013,54 +1002,49 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AE5" s="7" t="n">
+      <c r="AE5" s="4" t="n">
         <v>47</v>
       </c>
-      <c r="AG5" s="12" t="inlineStr">
+      <c r="AG5" s="11" t="inlineStr">
         <is>
           <t>car 3</t>
         </is>
       </c>
       <c r="AH5" s="2" t="inlineStr">
         <is>
-          <t>4 → 6</t>
+          <t>0 → 9</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>117 (RT)</t>
+          <t>133 (RT)</t>
         </is>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="K6" s="2" t="inlineStr">
+      <c r="O6" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="U6" s="2" t="inlineStr">
+      <c r="Y6" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="AC6" s="2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AG6" s="13" t="inlineStr">
+      <c r="AG6" s="12" t="inlineStr">
         <is>
           <t>car 4</t>
         </is>
       </c>
       <c r="AH6" s="2" t="inlineStr">
         <is>
-          <t>0 → 5</t>
+          <t>1 → 5</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>6 (RT)</t>
+          <t>117 (RT)</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1065,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="3" t="n">
         <v>50</v>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -1089,7 +1073,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="3" t="n">
         <v>51</v>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1097,7 +1081,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="3" t="n">
         <v>52</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1110,18 +1094,18 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="M7" s="3" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="M7" s="6" t="n">
         <v>54</v>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="O7" s="3" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="O7" s="6" t="n">
         <v>55</v>
       </c>
       <c r="P7" s="2" t="inlineStr">
@@ -1129,10 +1113,10 @@
           <t>→</t>
         </is>
       </c>
-      <c r="Q7" s="14" t="n">
+      <c r="Q7" s="13" t="n">
         <v>56</v>
       </c>
-      <c r="S7" s="5" t="n">
+      <c r="S7" s="7" t="n">
         <v>57</v>
       </c>
       <c r="T7" s="2" t="inlineStr">
@@ -1140,23 +1124,23 @@
           <t>←</t>
         </is>
       </c>
-      <c r="U7" s="5" t="n">
+      <c r="U7" s="7" t="n">
         <v>58</v>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="W7" s="5" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="W7" s="7" t="n">
         <v>59</v>
       </c>
       <c r="X7" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="Y7" s="9" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="Y7" s="7" t="n">
         <v>60</v>
       </c>
       <c r="Z7" s="2" t="inlineStr">
@@ -1164,10 +1148,15 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AA7" s="9" t="n">
+      <c r="AA7" s="4" t="n">
         <v>61</v>
       </c>
-      <c r="AC7" s="7" t="n">
+      <c r="AB7" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AC7" s="4" t="n">
         <v>62</v>
       </c>
       <c r="AD7" s="2" t="inlineStr">
@@ -1175,37 +1164,21 @@
           <t>→</t>
         </is>
       </c>
-      <c r="AE7" s="7" t="n">
+      <c r="AE7" s="4" t="n">
         <v>63</v>
       </c>
-      <c r="AG7" s="15" t="inlineStr">
-        <is>
-          <t>car 5</t>
+      <c r="AG7" s="14" t="inlineStr">
+        <is>
+          <t>dummy car</t>
         </is>
       </c>
       <c r="AH7" s="2" t="inlineStr">
         <is>
-          <t>3 → 8</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>161 (RT)</t>
+          <t>0 → 8</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="20" customHeight="1">
-      <c r="AG8" s="16" t="inlineStr">
-        <is>
-          <t>dummy car</t>
-        </is>
-      </c>
-      <c r="AH8" s="2" t="inlineStr">
-        <is>
-          <t>0 → 6</t>
-        </is>
-      </c>
-    </row>
+    <row r="8" ht="20" customHeight="1"/>
     <row r="9" ht="50" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1218,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AI7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,7 +1251,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="3" t="n">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="inlineStr">
@@ -1286,31 +1259,31 @@
           <t>→</t>
         </is>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="3" t="n">
         <v>3</v>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n">
         <v>4</v>
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="K1" s="3" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="K1" s="4" t="n">
         <v>5</v>
       </c>
       <c r="L1" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="M1" s="3" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="M1" s="4" t="n">
         <v>6</v>
       </c>
       <c r="N1" s="2" t="inlineStr">
@@ -1318,10 +1291,10 @@
           <t>←</t>
         </is>
       </c>
-      <c r="O1" s="3" t="n">
+      <c r="O1" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="Q1" s="4" t="n">
+      <c r="Q1" s="5" t="n">
         <v>8</v>
       </c>
       <c r="R1" s="2" t="inlineStr">
@@ -1329,7 +1302,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="S1" s="5" t="n">
+      <c r="S1" s="6" t="n">
         <v>9</v>
       </c>
       <c r="T1" s="2" t="inlineStr">
@@ -1337,7 +1310,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="U1" s="5" t="n">
+      <c r="U1" s="7" t="n">
         <v>10</v>
       </c>
       <c r="V1" s="2" t="inlineStr">
@@ -1345,7 +1318,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="W1" s="5" t="n">
+      <c r="W1" s="7" t="n">
         <v>11</v>
       </c>
       <c r="X1" s="2" t="inlineStr">
@@ -1353,7 +1326,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="Y1" s="6" t="n">
+      <c r="Y1" s="7" t="n">
         <v>12</v>
       </c>
       <c r="Z1" s="2" t="inlineStr">
@@ -1361,7 +1334,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AA1" s="7" t="n">
+      <c r="AA1" s="4" t="n">
         <v>13</v>
       </c>
       <c r="AB1" s="2" t="inlineStr">
@@ -1369,7 +1342,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AC1" s="7" t="n">
+      <c r="AC1" s="4" t="n">
         <v>14</v>
       </c>
       <c r="AD1" s="2" t="inlineStr">
@@ -1377,7 +1350,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AE1" s="7" t="n">
+      <c r="AE1" s="4" t="n">
         <v>15</v>
       </c>
       <c r="AG1" s="2" t="inlineStr">
@@ -1397,7 +1370,7 @@
       </c>
     </row>
     <row r="2" ht="20" customHeight="1">
-      <c r="M2" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
@@ -1407,11 +1380,6 @@
           <t>↑</t>
         </is>
       </c>
-      <c r="AC2" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
       <c r="AG2" s="8" t="inlineStr">
         <is>
           <t>car 0</t>
@@ -1419,7 +1387,7 @@
       </c>
       <c r="AH2" s="2" t="inlineStr">
         <is>
-          <t>0 → 9</t>
+          <t>0 → 5</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -1445,7 +1413,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="3" t="n">
         <v>18</v>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -1453,7 +1421,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="3" t="n">
         <v>19</v>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -1461,7 +1429,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="3" t="n">
         <v>20</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
@@ -1477,7 +1445,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="M3" s="3" t="n">
+      <c r="M3" s="6" t="n">
         <v>22</v>
       </c>
       <c r="N3" s="2" t="inlineStr">
@@ -1485,7 +1453,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="O3" s="3" t="n">
+      <c r="O3" s="6" t="n">
         <v>23</v>
       </c>
       <c r="P3" s="2" t="inlineStr">
@@ -1493,7 +1461,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="Q3" s="3" t="n">
+      <c r="Q3" s="6" t="n">
         <v>24</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
@@ -1501,7 +1469,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="S3" s="5" t="n">
+      <c r="S3" s="6" t="n">
         <v>25</v>
       </c>
       <c r="T3" s="2" t="inlineStr">
@@ -1509,7 +1477,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="U3" s="5" t="n">
+      <c r="U3" s="7" t="n">
         <v>26</v>
       </c>
       <c r="V3" s="2" t="inlineStr">
@@ -1517,26 +1485,31 @@
           <t>←</t>
         </is>
       </c>
-      <c r="W3" s="5" t="n">
+      <c r="W3" s="7" t="n">
         <v>27</v>
       </c>
-      <c r="Y3" s="9" t="n">
+      <c r="X3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="Y3" s="7" t="n">
         <v>28</v>
       </c>
       <c r="Z3" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AA3" s="7" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AA3" s="4" t="n">
         <v>29</v>
       </c>
       <c r="AB3" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AC3" s="7" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AC3" s="4" t="n">
         <v>30</v>
       </c>
       <c r="AD3" s="2" t="inlineStr">
@@ -1544,49 +1517,44 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AE3" s="7" t="n">
+      <c r="AE3" s="4" t="n">
         <v>31</v>
       </c>
-      <c r="AG3" s="10" t="inlineStr">
+      <c r="AG3" s="9" t="inlineStr">
         <is>
           <t>car 1</t>
         </is>
       </c>
       <c r="AH3" s="2" t="inlineStr">
         <is>
-          <t>0 → 7</t>
+          <t>4 → 5</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>61 (RT)</t>
+          <t>78 (RT)</t>
         </is>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="W4" s="2" t="inlineStr">
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
       </c>
-      <c r="AC4" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AG4" s="11" t="inlineStr">
+      <c r="AG4" s="10" t="inlineStr">
         <is>
           <t>car 2</t>
         </is>
       </c>
       <c r="AH4" s="2" t="inlineStr">
         <is>
-          <t>4 → 5</t>
+          <t>2 → 9</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>114 (RT)</t>
+          <t>131 (RT)</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1575,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="3" t="n">
         <v>34</v>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -1615,7 +1583,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="3" t="n">
         <v>35</v>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -1623,7 +1591,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="3" t="n">
         <v>36</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1639,7 +1607,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="M5" s="3" t="n">
+      <c r="M5" s="6" t="n">
         <v>38</v>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -1647,7 +1615,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="O5" s="3" t="n">
+      <c r="O5" s="6" t="n">
         <v>39</v>
       </c>
       <c r="P5" s="2" t="inlineStr">
@@ -1655,31 +1623,31 @@
           <t>→</t>
         </is>
       </c>
-      <c r="Q5" s="3" t="n">
+      <c r="Q5" s="6" t="n">
         <v>40</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="S5" s="5" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="S5" s="7" t="n">
         <v>41</v>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="U5" s="5" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="U5" s="7" t="n">
         <v>42</v>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="W5" s="5" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="W5" s="7" t="n">
         <v>43</v>
       </c>
       <c r="X5" s="2" t="inlineStr">
@@ -1687,18 +1655,23 @@
           <t>←</t>
         </is>
       </c>
-      <c r="Y5" s="9" t="n">
+      <c r="Y5" s="7" t="n">
         <v>44</v>
       </c>
-      <c r="AA5" s="9" t="n">
+      <c r="Z5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AA5" s="4" t="n">
         <v>45</v>
       </c>
       <c r="AB5" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AC5" s="7" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AC5" s="4" t="n">
         <v>46</v>
       </c>
       <c r="AD5" s="2" t="inlineStr">
@@ -1706,54 +1679,49 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AE5" s="7" t="n">
+      <c r="AE5" s="4" t="n">
         <v>47</v>
       </c>
-      <c r="AG5" s="12" t="inlineStr">
+      <c r="AG5" s="11" t="inlineStr">
         <is>
           <t>car 3</t>
         </is>
       </c>
       <c r="AH5" s="2" t="inlineStr">
         <is>
-          <t>4 → 6</t>
+          <t>0 → 9</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>117 (RT)</t>
+          <t>133 (RT)</t>
         </is>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="K6" s="2" t="inlineStr">
+      <c r="O6" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
       </c>
-      <c r="U6" s="2" t="inlineStr">
+      <c r="Y6" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
       </c>
-      <c r="AC6" s="2" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AG6" s="13" t="inlineStr">
+      <c r="AG6" s="12" t="inlineStr">
         <is>
           <t>car 4</t>
         </is>
       </c>
       <c r="AH6" s="2" t="inlineStr">
         <is>
-          <t>0 → 5</t>
+          <t>1 → 5</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>6 (RT)</t>
+          <t>117 (RT)</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1742,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="3" t="n">
         <v>50</v>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -1782,7 +1750,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="3" t="n">
         <v>51</v>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1790,7 +1758,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="3" t="n">
         <v>52</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1803,18 +1771,18 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="M7" s="3" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M7" s="6" t="n">
         <v>54</v>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="O7" s="3" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="O7" s="6" t="n">
         <v>55</v>
       </c>
       <c r="P7" s="2" t="inlineStr">
@@ -1822,10 +1790,10 @@
           <t>←</t>
         </is>
       </c>
-      <c r="Q7" s="14" t="n">
+      <c r="Q7" s="13" t="n">
         <v>56</v>
       </c>
-      <c r="S7" s="5" t="n">
+      <c r="S7" s="7" t="n">
         <v>57</v>
       </c>
       <c r="T7" s="2" t="inlineStr">
@@ -1833,34 +1801,39 @@
           <t>→</t>
         </is>
       </c>
-      <c r="U7" s="5" t="n">
+      <c r="U7" s="7" t="n">
         <v>58</v>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="W7" s="5" t="n">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="W7" s="7" t="n">
         <v>59</v>
       </c>
-      <c r="Y7" s="9" t="n">
+      <c r="X7" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="Y7" s="7" t="n">
         <v>60</v>
       </c>
       <c r="Z7" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AA7" s="9" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AA7" s="4" t="n">
         <v>61</v>
       </c>
       <c r="AB7" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AC7" s="7" t="n">
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AC7" s="4" t="n">
         <v>62</v>
       </c>
       <c r="AD7" s="2" t="inlineStr">
@@ -1868,37 +1841,21 @@
           <t>←</t>
         </is>
       </c>
-      <c r="AE7" s="7" t="n">
+      <c r="AE7" s="4" t="n">
         <v>63</v>
       </c>
-      <c r="AG7" s="15" t="inlineStr">
-        <is>
-          <t>car 5</t>
+      <c r="AG7" s="14" t="inlineStr">
+        <is>
+          <t>dummy car</t>
         </is>
       </c>
       <c r="AH7" s="2" t="inlineStr">
         <is>
-          <t>3 → 8</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>161 (RT)</t>
+          <t>0 → 8</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="20" customHeight="1">
-      <c r="AG8" s="16" t="inlineStr">
-        <is>
-          <t>dummy car</t>
-        </is>
-      </c>
-      <c r="AH8" s="2" t="inlineStr">
-        <is>
-          <t>0 → 6</t>
-        </is>
-      </c>
-    </row>
+    <row r="8" ht="20" customHeight="1"/>
     <row r="9" ht="50" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
